--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.9967608739986</v>
+        <v>11.99676087399864</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.052156532315534</v>
+        <v>9.052156532315516</v>
       </c>
       <c r="E2">
-        <v>15.3774458146876</v>
+        <v>15.37744581468752</v>
       </c>
       <c r="F2">
-        <v>63.47625985724306</v>
+        <v>63.47625985724291</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.52245635158435</v>
+        <v>36.52245635158432</v>
       </c>
       <c r="K2">
-        <v>21.43799513011623</v>
+        <v>21.43799513011617</v>
       </c>
       <c r="L2">
         <v>19.17599161855645</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11309689325063</v>
+        <v>11.11309689325069</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.505813010572723</v>
+        <v>8.505813010572702</v>
       </c>
       <c r="E3">
-        <v>14.4956458581266</v>
+        <v>14.49564585812677</v>
       </c>
       <c r="F3">
-        <v>58.91091379183005</v>
+        <v>58.91091379183023</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.76838749983251</v>
+        <v>33.76838749983259</v>
       </c>
       <c r="K3">
-        <v>19.80397074556672</v>
+        <v>19.80397074556676</v>
       </c>
       <c r="L3">
-        <v>17.76680321100709</v>
+        <v>17.76680321100714</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6438990905816</v>
+        <v>10.64389909058161</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.173564148991892</v>
+        <v>8.173564148991954</v>
       </c>
       <c r="E4">
-        <v>13.95087617424957</v>
+        <v>13.95087617424952</v>
       </c>
       <c r="F4">
-        <v>56.07058682321665</v>
+        <v>56.07058682321705</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.01997275533918</v>
+        <v>32.01997275533935</v>
       </c>
       <c r="K4">
-        <v>18.76626471922395</v>
+        <v>18.76626471922412</v>
       </c>
       <c r="L4">
-        <v>16.86970170855536</v>
+        <v>16.86970170855549</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.45446644078132</v>
+        <v>10.45446644078135</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.03877743360963</v>
+        <v>8.03877743360955</v>
       </c>
       <c r="E5">
-        <v>13.72744151757855</v>
+        <v>13.72744151757823</v>
       </c>
       <c r="F5">
-        <v>54.90230758063631</v>
+        <v>54.90230758063596</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.29178673832822</v>
+        <v>31.291786738328</v>
       </c>
       <c r="K5">
-        <v>18.33402233509887</v>
+        <v>18.3340223350988</v>
       </c>
       <c r="L5">
-        <v>16.49558139775959</v>
+        <v>16.49558139775954</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.42285078317324</v>
+        <v>10.42285078317327</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.016428532751069</v>
+        <v>8.016428532751073</v>
       </c>
       <c r="E6">
-        <v>13.69023884943454</v>
+        <v>13.69023884943451</v>
       </c>
       <c r="F6">
-        <v>54.70763002059456</v>
+        <v>54.7076300205943</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.16989124914653</v>
+        <v>31.16989124914647</v>
       </c>
       <c r="K6">
-        <v>18.26166410231988</v>
+        <v>18.26166410231984</v>
       </c>
       <c r="L6">
-        <v>16.4329289549291</v>
+        <v>16.43292895492907</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64135514984118</v>
+        <v>10.64135514984117</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.171744115595127</v>
+        <v>8.171744115595011</v>
       </c>
       <c r="E7">
-        <v>13.94786935748833</v>
+        <v>13.94786935748816</v>
       </c>
       <c r="F7">
-        <v>56.05487634636061</v>
+        <v>56.0548763463603</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.01021723845979</v>
+        <v>32.01021723845967</v>
       </c>
       <c r="K7">
-        <v>18.76047414760876</v>
+        <v>18.76047414760872</v>
       </c>
       <c r="L7">
-        <v>16.86469143012638</v>
+        <v>16.86469143012634</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.862964950202484</v>
+        <v>8.86296495020254</v>
       </c>
       <c r="E8">
-        <v>15.07368681169073</v>
+        <v>15.07368681169071</v>
       </c>
       <c r="F8">
-        <v>61.90876857135844</v>
+        <v>61.90876857135869</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.58394058722814</v>
+        <v>35.58394058722823</v>
       </c>
       <c r="K8">
-        <v>20.88125550721135</v>
+        <v>20.88125550721145</v>
       </c>
       <c r="L8">
-        <v>18.69636381808375</v>
+        <v>18.69636381808381</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.78312939688401</v>
+        <v>13.78312939688405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.25825514093495</v>
+        <v>10.258255140935</v>
       </c>
       <c r="E9">
-        <v>17.29182266529552</v>
+        <v>17.29182266529553</v>
       </c>
       <c r="F9">
-        <v>73.5566109646207</v>
+        <v>73.55661096462084</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>42.20778646119897</v>
+        <v>42.20778646119899</v>
       </c>
       <c r="K9">
         <v>24.80729554223439</v>
       </c>
       <c r="L9">
-        <v>22.06564129358051</v>
+        <v>22.06564129358053</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.3392510786064</v>
+        <v>11.33925107860643</v>
       </c>
       <c r="E10">
-        <v>19.00230887129378</v>
+        <v>19.00230887129397</v>
       </c>
       <c r="F10">
-        <v>82.21827530531928</v>
+        <v>82.21827530531959</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.9737158339969</v>
+        <v>46.97371583399708</v>
       </c>
       <c r="K10">
-        <v>27.62438267227601</v>
+        <v>27.62438267227606</v>
       </c>
       <c r="L10">
-        <v>24.46123692415943</v>
+        <v>24.4612369241595</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.85527717797757</v>
+        <v>11.8552771779776</v>
       </c>
       <c r="E11">
-        <v>19.82520363752579</v>
+        <v>19.82520363752588</v>
       </c>
       <c r="F11">
-        <v>86.25398954818641</v>
+        <v>86.25398954818638</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>49.16574530970701</v>
+        <v>49.16574530970708</v>
       </c>
       <c r="K11">
-        <v>28.91648583446613</v>
+        <v>28.91648583446619</v>
       </c>
       <c r="L11">
-        <v>25.55256645316359</v>
+        <v>25.55256645316361</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.12517773373991</v>
+        <v>16.12517773373998</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.05580152054212</v>
+        <v>12.0558015205421</v>
       </c>
       <c r="E12">
-        <v>20.1468697186872</v>
+        <v>20.14686971868718</v>
       </c>
       <c r="F12">
-        <v>87.80709692728021</v>
+        <v>87.8070969272805</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>50.00511877338468</v>
+        <v>50.00511877338469</v>
       </c>
       <c r="K12">
-        <v>29.41048500923545</v>
+        <v>29.41048500923542</v>
       </c>
       <c r="L12">
-        <v>25.96843040117133</v>
+        <v>25.96843040117134</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07244465981996</v>
+        <v>16.07244465981999</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.01235337866408</v>
+        <v>12.01235337866402</v>
       </c>
       <c r="E13">
-        <v>20.07707022445257</v>
+        <v>20.07707022445247</v>
       </c>
       <c r="F13">
-        <v>87.47127030528145</v>
+        <v>87.47127030528149</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>49.82381021689185</v>
+        <v>49.8238102168918</v>
       </c>
       <c r="K13">
-        <v>29.30381866875986</v>
+        <v>29.30381866875981</v>
       </c>
       <c r="L13">
-        <v>25.87870222699866</v>
+        <v>25.87870222699864</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90043903186011</v>
+        <v>15.90043903186016</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.8716599124995</v>
+        <v>11.87165991249953</v>
       </c>
       <c r="E14">
-        <v>19.85143916250862</v>
+        <v>19.85143916250857</v>
       </c>
       <c r="F14">
-        <v>86.38118489537241</v>
+        <v>86.38118489537263</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>49.2345721594582</v>
+        <v>49.23457215945819</v>
       </c>
       <c r="K14">
-        <v>28.95701006641312</v>
+        <v>28.95701006641311</v>
       </c>
       <c r="L14">
-        <v>25.58671053455328</v>
+        <v>25.58671053455329</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79503354738563</v>
+        <v>15.79503354738561</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.78620816409434</v>
+        <v>11.78620816409429</v>
       </c>
       <c r="E15">
-        <v>19.71467796912185</v>
+        <v>19.71467796912192</v>
       </c>
       <c r="F15">
-        <v>85.71712739624698</v>
+        <v>85.71712739624672</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>48.87507374557772</v>
+        <v>48.87507374557769</v>
       </c>
       <c r="K15">
         <v>28.74530977850844</v>
       </c>
       <c r="L15">
-        <v>25.40828309387877</v>
+        <v>25.40828309387873</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18943244286605</v>
+        <v>15.18943244286606</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.30613945705331</v>
+        <v>11.30613945705337</v>
       </c>
       <c r="E16">
-        <v>18.94970634766496</v>
+        <v>18.94970634766477</v>
       </c>
       <c r="F16">
-        <v>81.95730363384183</v>
+        <v>81.95730363384165</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>46.83139188402724</v>
+        <v>46.8313918840271</v>
       </c>
       <c r="K16">
-        <v>27.5403982403053</v>
+        <v>27.54039824030524</v>
       </c>
       <c r="L16">
-        <v>24.39012988507652</v>
+        <v>24.39012988507648</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81572228001075</v>
+        <v>14.81572228001076</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.01880328330904</v>
+        <v>11.018803283309</v>
       </c>
       <c r="E17">
-        <v>18.49401162660858</v>
+        <v>18.49401162660848</v>
       </c>
       <c r="F17">
-        <v>79.68182043923417</v>
+        <v>79.68182043923392</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>45.58727935789306</v>
+        <v>45.58727935789293</v>
       </c>
       <c r="K17">
-        <v>26.80583886850068</v>
+        <v>26.80583886850059</v>
       </c>
       <c r="L17">
-        <v>23.7673461866386</v>
+        <v>23.76734618663853</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59969295439536</v>
+        <v>14.59969295439548</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.8556920858188</v>
+        <v>10.85569208581884</v>
       </c>
       <c r="E18">
-        <v>18.23584022778243</v>
+        <v>18.23584022778219</v>
       </c>
       <c r="F18">
-        <v>78.38114245371021</v>
+        <v>78.3811424537103</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.8735039579826</v>
+        <v>44.87350395798251</v>
       </c>
       <c r="K18">
-        <v>26.38409202155736</v>
+        <v>26.38409202155733</v>
       </c>
       <c r="L18">
-        <v>23.40910166450739</v>
+        <v>23.40910166450745</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52634057382678</v>
+        <v>14.5263405738268</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.80079699922265</v>
+        <v>10.80079699922263</v>
       </c>
       <c r="E19">
-        <v>18.14901662614014</v>
+        <v>18.14901662614005</v>
       </c>
       <c r="F19">
-        <v>77.94187998438838</v>
+        <v>77.94187998438836</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.63199943826327</v>
+        <v>44.6319994382632</v>
       </c>
       <c r="K19">
-        <v>26.24134700026757</v>
+        <v>26.24134700026752</v>
       </c>
       <c r="L19">
-        <v>23.28774177699304</v>
+        <v>23.28774177699306</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85561063901694</v>
+        <v>14.85561063901689</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.04915786369957</v>
+        <v>11.04915786369954</v>
       </c>
       <c r="E20">
-        <v>18.54209277990516</v>
+        <v>18.54209277990522</v>
       </c>
       <c r="F20">
-        <v>79.92314264377305</v>
+        <v>79.92314264377282</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>45.71949535312906</v>
+        <v>45.719495353129</v>
       </c>
       <c r="K20">
-        <v>26.88393692855042</v>
+        <v>26.88393692855038</v>
       </c>
       <c r="L20">
-        <v>23.83363194562051</v>
+        <v>23.83363194562044</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.95096885989426</v>
+        <v>15.9509688598942</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.91282945540849</v>
+        <v>11.91282945540848</v>
       </c>
       <c r="E21">
-        <v>19.91740252941164</v>
+        <v>19.91740252941154</v>
       </c>
       <c r="F21">
-        <v>86.70058127310499</v>
+        <v>86.70058127310519</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>49.40733406837661</v>
+        <v>49.40733406837645</v>
       </c>
       <c r="K21">
-        <v>29.05871634013589</v>
+        <v>29.0587163401358</v>
       </c>
       <c r="L21">
-        <v>25.67238108543523</v>
+        <v>25.67238108543517</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66397911826632</v>
+        <v>16.66397911826641</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.50849873756334</v>
+        <v>12.50849873756342</v>
       </c>
       <c r="E22">
-        <v>20.87794263217872</v>
+        <v>20.87794263217877</v>
       </c>
       <c r="F22">
-        <v>91.28430681935481</v>
+        <v>91.28430681935549</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>51.87661664723896</v>
+        <v>51.87661664723912</v>
       </c>
       <c r="K22">
-        <v>30.51011568450487</v>
+        <v>30.51011568450495</v>
       </c>
       <c r="L22">
-        <v>26.89121729048677</v>
+        <v>26.89121729048685</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.28328082273979</v>
+        <v>16.28328082273974</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.18696698392797</v>
+        <v>12.1869669839279</v>
       </c>
       <c r="E23">
-        <v>20.35795532932944</v>
+        <v>20.35795532932938</v>
       </c>
       <c r="F23">
-        <v>88.81865444082987</v>
+        <v>88.81865444082933</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>50.55063429096459</v>
+        <v>50.55063429096451</v>
       </c>
       <c r="K23">
-        <v>29.73128118889576</v>
+        <v>29.73128118889572</v>
       </c>
       <c r="L23">
-        <v>26.23805934449721</v>
+        <v>26.23805934449715</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83758084645668</v>
+        <v>14.8375808464566</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.03542818370943</v>
+        <v>11.03542818370946</v>
       </c>
       <c r="E24">
-        <v>18.52034365945238</v>
+        <v>18.52034365945242</v>
       </c>
       <c r="F24">
-        <v>79.81401819504424</v>
+        <v>79.81401819504387</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>45.65971629047877</v>
+        <v>45.65971629047872</v>
       </c>
       <c r="K24">
-        <v>26.84862726785661</v>
+        <v>26.84862726785652</v>
       </c>
       <c r="L24">
-        <v>23.80366493467136</v>
+        <v>23.80366493467128</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23546431982466</v>
+        <v>13.23546431982465</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.873987069618174</v>
+        <v>9.873987069618224</v>
       </c>
       <c r="E25">
-        <v>16.68442970687472</v>
+        <v>16.68442970687471</v>
       </c>
       <c r="F25">
-        <v>70.39776238550395</v>
+        <v>70.39776238550451</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>40.44543572381806</v>
       </c>
       <c r="K25">
-        <v>23.76363231479651</v>
+        <v>23.76363231479655</v>
       </c>
       <c r="L25">
-        <v>21.17312912272355</v>
+        <v>21.1731291227236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.99676087399864</v>
+        <v>11.9967608739986</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.052156532315516</v>
+        <v>9.052156532315534</v>
       </c>
       <c r="E2">
-        <v>15.37744581468752</v>
+        <v>15.3774458146876</v>
       </c>
       <c r="F2">
-        <v>63.47625985724291</v>
+        <v>63.47625985724306</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.52245635158432</v>
+        <v>36.52245635158435</v>
       </c>
       <c r="K2">
-        <v>21.43799513011617</v>
+        <v>21.43799513011623</v>
       </c>
       <c r="L2">
         <v>19.17599161855645</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11309689325069</v>
+        <v>11.11309689325063</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.505813010572702</v>
+        <v>8.505813010572723</v>
       </c>
       <c r="E3">
-        <v>14.49564585812677</v>
+        <v>14.4956458581266</v>
       </c>
       <c r="F3">
-        <v>58.91091379183023</v>
+        <v>58.91091379183005</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.76838749983259</v>
+        <v>33.76838749983251</v>
       </c>
       <c r="K3">
-        <v>19.80397074556676</v>
+        <v>19.80397074556672</v>
       </c>
       <c r="L3">
-        <v>17.76680321100714</v>
+        <v>17.76680321100709</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64389909058161</v>
+        <v>10.6438990905816</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.173564148991954</v>
+        <v>8.173564148991892</v>
       </c>
       <c r="E4">
-        <v>13.95087617424952</v>
+        <v>13.95087617424957</v>
       </c>
       <c r="F4">
-        <v>56.07058682321705</v>
+        <v>56.07058682321665</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.01997275533935</v>
+        <v>32.01997275533918</v>
       </c>
       <c r="K4">
-        <v>18.76626471922412</v>
+        <v>18.76626471922395</v>
       </c>
       <c r="L4">
-        <v>16.86970170855549</v>
+        <v>16.86970170855536</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.45446644078135</v>
+        <v>10.45446644078132</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.03877743360955</v>
+        <v>8.03877743360963</v>
       </c>
       <c r="E5">
-        <v>13.72744151757823</v>
+        <v>13.72744151757855</v>
       </c>
       <c r="F5">
-        <v>54.90230758063596</v>
+        <v>54.90230758063631</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.291786738328</v>
+        <v>31.29178673832822</v>
       </c>
       <c r="K5">
-        <v>18.3340223350988</v>
+        <v>18.33402233509887</v>
       </c>
       <c r="L5">
-        <v>16.49558139775954</v>
+        <v>16.49558139775959</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.42285078317327</v>
+        <v>10.42285078317324</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.016428532751073</v>
+        <v>8.016428532751069</v>
       </c>
       <c r="E6">
-        <v>13.69023884943451</v>
+        <v>13.69023884943454</v>
       </c>
       <c r="F6">
-        <v>54.7076300205943</v>
+        <v>54.70763002059456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.16989124914647</v>
+        <v>31.16989124914653</v>
       </c>
       <c r="K6">
-        <v>18.26166410231984</v>
+        <v>18.26166410231988</v>
       </c>
       <c r="L6">
-        <v>16.43292895492907</v>
+        <v>16.4329289549291</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64135514984117</v>
+        <v>10.64135514984118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.171744115595011</v>
+        <v>8.171744115595127</v>
       </c>
       <c r="E7">
-        <v>13.94786935748816</v>
+        <v>13.94786935748833</v>
       </c>
       <c r="F7">
-        <v>56.0548763463603</v>
+        <v>56.05487634636061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.01021723845967</v>
+        <v>32.01021723845979</v>
       </c>
       <c r="K7">
-        <v>18.76047414760872</v>
+        <v>18.76047414760876</v>
       </c>
       <c r="L7">
-        <v>16.86469143012634</v>
+        <v>16.86469143012638</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.86296495020254</v>
+        <v>8.862964950202484</v>
       </c>
       <c r="E8">
-        <v>15.07368681169071</v>
+        <v>15.07368681169073</v>
       </c>
       <c r="F8">
-        <v>61.90876857135869</v>
+        <v>61.90876857135844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.58394058722823</v>
+        <v>35.58394058722814</v>
       </c>
       <c r="K8">
-        <v>20.88125550721145</v>
+        <v>20.88125550721135</v>
       </c>
       <c r="L8">
-        <v>18.69636381808381</v>
+        <v>18.69636381808375</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.78312939688405</v>
+        <v>13.78312939688401</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.258255140935</v>
+        <v>10.25825514093495</v>
       </c>
       <c r="E9">
-        <v>17.29182266529553</v>
+        <v>17.29182266529552</v>
       </c>
       <c r="F9">
-        <v>73.55661096462084</v>
+        <v>73.5566109646207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>42.20778646119899</v>
+        <v>42.20778646119897</v>
       </c>
       <c r="K9">
         <v>24.80729554223439</v>
       </c>
       <c r="L9">
-        <v>22.06564129358053</v>
+        <v>22.06564129358051</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.33925107860643</v>
+        <v>11.3392510786064</v>
       </c>
       <c r="E10">
-        <v>19.00230887129397</v>
+        <v>19.00230887129378</v>
       </c>
       <c r="F10">
-        <v>82.21827530531959</v>
+        <v>82.21827530531928</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.97371583399708</v>
+        <v>46.9737158339969</v>
       </c>
       <c r="K10">
-        <v>27.62438267227606</v>
+        <v>27.62438267227601</v>
       </c>
       <c r="L10">
-        <v>24.4612369241595</v>
+        <v>24.46123692415943</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.8552771779776</v>
+        <v>11.85527717797757</v>
       </c>
       <c r="E11">
-        <v>19.82520363752588</v>
+        <v>19.82520363752579</v>
       </c>
       <c r="F11">
-        <v>86.25398954818638</v>
+        <v>86.25398954818641</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>49.16574530970708</v>
+        <v>49.16574530970701</v>
       </c>
       <c r="K11">
-        <v>28.91648583446619</v>
+        <v>28.91648583446613</v>
       </c>
       <c r="L11">
-        <v>25.55256645316361</v>
+        <v>25.55256645316359</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.12517773373998</v>
+        <v>16.12517773373991</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.0558015205421</v>
+        <v>12.05580152054212</v>
       </c>
       <c r="E12">
-        <v>20.14686971868718</v>
+        <v>20.1468697186872</v>
       </c>
       <c r="F12">
-        <v>87.8070969272805</v>
+        <v>87.80709692728021</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>50.00511877338469</v>
+        <v>50.00511877338468</v>
       </c>
       <c r="K12">
-        <v>29.41048500923542</v>
+        <v>29.41048500923545</v>
       </c>
       <c r="L12">
-        <v>25.96843040117134</v>
+        <v>25.96843040117133</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07244465981999</v>
+        <v>16.07244465981996</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.01235337866402</v>
+        <v>12.01235337866408</v>
       </c>
       <c r="E13">
-        <v>20.07707022445247</v>
+        <v>20.07707022445257</v>
       </c>
       <c r="F13">
-        <v>87.47127030528149</v>
+        <v>87.47127030528145</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>49.8238102168918</v>
+        <v>49.82381021689185</v>
       </c>
       <c r="K13">
-        <v>29.30381866875981</v>
+        <v>29.30381866875986</v>
       </c>
       <c r="L13">
-        <v>25.87870222699864</v>
+        <v>25.87870222699866</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90043903186016</v>
+        <v>15.90043903186011</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.87165991249953</v>
+        <v>11.8716599124995</v>
       </c>
       <c r="E14">
-        <v>19.85143916250857</v>
+        <v>19.85143916250862</v>
       </c>
       <c r="F14">
-        <v>86.38118489537263</v>
+        <v>86.38118489537241</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>49.23457215945819</v>
+        <v>49.2345721594582</v>
       </c>
       <c r="K14">
-        <v>28.95701006641311</v>
+        <v>28.95701006641312</v>
       </c>
       <c r="L14">
-        <v>25.58671053455329</v>
+        <v>25.58671053455328</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79503354738561</v>
+        <v>15.79503354738563</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.78620816409429</v>
+        <v>11.78620816409434</v>
       </c>
       <c r="E15">
-        <v>19.71467796912192</v>
+        <v>19.71467796912185</v>
       </c>
       <c r="F15">
-        <v>85.71712739624672</v>
+        <v>85.71712739624698</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>48.87507374557769</v>
+        <v>48.87507374557772</v>
       </c>
       <c r="K15">
         <v>28.74530977850844</v>
       </c>
       <c r="L15">
-        <v>25.40828309387873</v>
+        <v>25.40828309387877</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18943244286606</v>
+        <v>15.18943244286605</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.30613945705337</v>
+        <v>11.30613945705331</v>
       </c>
       <c r="E16">
-        <v>18.94970634766477</v>
+        <v>18.94970634766496</v>
       </c>
       <c r="F16">
-        <v>81.95730363384165</v>
+        <v>81.95730363384183</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>46.8313918840271</v>
+        <v>46.83139188402724</v>
       </c>
       <c r="K16">
-        <v>27.54039824030524</v>
+        <v>27.5403982403053</v>
       </c>
       <c r="L16">
-        <v>24.39012988507648</v>
+        <v>24.39012988507652</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81572228001076</v>
+        <v>14.81572228001075</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.018803283309</v>
+        <v>11.01880328330904</v>
       </c>
       <c r="E17">
-        <v>18.49401162660848</v>
+        <v>18.49401162660858</v>
       </c>
       <c r="F17">
-        <v>79.68182043923392</v>
+        <v>79.68182043923417</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>45.58727935789293</v>
+        <v>45.58727935789306</v>
       </c>
       <c r="K17">
-        <v>26.80583886850059</v>
+        <v>26.80583886850068</v>
       </c>
       <c r="L17">
-        <v>23.76734618663853</v>
+        <v>23.7673461866386</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59969295439548</v>
+        <v>14.59969295439536</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.85569208581884</v>
+        <v>10.8556920858188</v>
       </c>
       <c r="E18">
-        <v>18.23584022778219</v>
+        <v>18.23584022778243</v>
       </c>
       <c r="F18">
-        <v>78.3811424537103</v>
+        <v>78.38114245371021</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.87350395798251</v>
+        <v>44.8735039579826</v>
       </c>
       <c r="K18">
-        <v>26.38409202155733</v>
+        <v>26.38409202155736</v>
       </c>
       <c r="L18">
-        <v>23.40910166450745</v>
+        <v>23.40910166450739</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.5263405738268</v>
+        <v>14.52634057382678</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.80079699922263</v>
+        <v>10.80079699922265</v>
       </c>
       <c r="E19">
-        <v>18.14901662614005</v>
+        <v>18.14901662614014</v>
       </c>
       <c r="F19">
-        <v>77.94187998438836</v>
+        <v>77.94187998438838</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.6319994382632</v>
+        <v>44.63199943826327</v>
       </c>
       <c r="K19">
-        <v>26.24134700026752</v>
+        <v>26.24134700026757</v>
       </c>
       <c r="L19">
-        <v>23.28774177699306</v>
+        <v>23.28774177699304</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85561063901689</v>
+        <v>14.85561063901694</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.04915786369954</v>
+        <v>11.04915786369957</v>
       </c>
       <c r="E20">
-        <v>18.54209277990522</v>
+        <v>18.54209277990516</v>
       </c>
       <c r="F20">
-        <v>79.92314264377282</v>
+        <v>79.92314264377305</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>45.719495353129</v>
+        <v>45.71949535312906</v>
       </c>
       <c r="K20">
-        <v>26.88393692855038</v>
+        <v>26.88393692855042</v>
       </c>
       <c r="L20">
-        <v>23.83363194562044</v>
+        <v>23.83363194562051</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.9509688598942</v>
+        <v>15.95096885989426</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.91282945540848</v>
+        <v>11.91282945540849</v>
       </c>
       <c r="E21">
-        <v>19.91740252941154</v>
+        <v>19.91740252941164</v>
       </c>
       <c r="F21">
-        <v>86.70058127310519</v>
+        <v>86.70058127310499</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>49.40733406837645</v>
+        <v>49.40733406837661</v>
       </c>
       <c r="K21">
-        <v>29.0587163401358</v>
+        <v>29.05871634013589</v>
       </c>
       <c r="L21">
-        <v>25.67238108543517</v>
+        <v>25.67238108543523</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66397911826641</v>
+        <v>16.66397911826632</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.50849873756342</v>
+        <v>12.50849873756334</v>
       </c>
       <c r="E22">
-        <v>20.87794263217877</v>
+        <v>20.87794263217872</v>
       </c>
       <c r="F22">
-        <v>91.28430681935549</v>
+        <v>91.28430681935481</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>51.87661664723912</v>
+        <v>51.87661664723896</v>
       </c>
       <c r="K22">
-        <v>30.51011568450495</v>
+        <v>30.51011568450487</v>
       </c>
       <c r="L22">
-        <v>26.89121729048685</v>
+        <v>26.89121729048677</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.28328082273974</v>
+        <v>16.28328082273979</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.1869669839279</v>
+        <v>12.18696698392797</v>
       </c>
       <c r="E23">
-        <v>20.35795532932938</v>
+        <v>20.35795532932944</v>
       </c>
       <c r="F23">
-        <v>88.81865444082933</v>
+        <v>88.81865444082987</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>50.55063429096451</v>
+        <v>50.55063429096459</v>
       </c>
       <c r="K23">
-        <v>29.73128118889572</v>
+        <v>29.73128118889576</v>
       </c>
       <c r="L23">
-        <v>26.23805934449715</v>
+        <v>26.23805934449721</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.8375808464566</v>
+        <v>14.83758084645668</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.03542818370946</v>
+        <v>11.03542818370943</v>
       </c>
       <c r="E24">
-        <v>18.52034365945242</v>
+        <v>18.52034365945238</v>
       </c>
       <c r="F24">
-        <v>79.81401819504387</v>
+        <v>79.81401819504424</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>45.65971629047872</v>
+        <v>45.65971629047877</v>
       </c>
       <c r="K24">
-        <v>26.84862726785652</v>
+        <v>26.84862726785661</v>
       </c>
       <c r="L24">
-        <v>23.80366493467128</v>
+        <v>23.80366493467136</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23546431982465</v>
+        <v>13.23546431982466</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.873987069618224</v>
+        <v>9.873987069618174</v>
       </c>
       <c r="E25">
-        <v>16.68442970687471</v>
+        <v>16.68442970687472</v>
       </c>
       <c r="F25">
-        <v>70.39776238550451</v>
+        <v>70.39776238550395</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>40.44543572381806</v>
       </c>
       <c r="K25">
-        <v>23.76363231479655</v>
+        <v>23.76363231479651</v>
       </c>
       <c r="L25">
-        <v>21.1731291227236</v>
+        <v>21.17312912272355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.9967608739986</v>
+        <v>11.96457391020222</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.052156532315534</v>
+        <v>9.105211749810396</v>
       </c>
       <c r="E2">
-        <v>15.3774458146876</v>
+        <v>14.9840026247411</v>
       </c>
       <c r="F2">
-        <v>63.47625985724306</v>
+        <v>63.3843353691399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.980669202351437</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.52245635158435</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.43799513011623</v>
+        <v>36.1722662292726</v>
       </c>
       <c r="L2">
-        <v>19.17599161855645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>21.28226563333116</v>
+      </c>
+      <c r="M2">
+        <v>19.05273236929281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11309689325063</v>
+        <v>11.10640058976078</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.505813010572723</v>
+        <v>8.576899564829045</v>
       </c>
       <c r="E3">
-        <v>14.4956458581266</v>
+        <v>14.10218886561814</v>
       </c>
       <c r="F3">
-        <v>58.91091379183005</v>
+        <v>58.89054902376137</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.003821040857884</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.76838749983251</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.80397074556672</v>
+        <v>33.43230874058597</v>
       </c>
       <c r="L3">
-        <v>17.76680321100709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19.65633920162579</v>
+      </c>
+      <c r="M3">
+        <v>17.64839839939441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6438990905816</v>
+        <v>10.65165075179871</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.173564148991892</v>
+        <v>8.256498513066807</v>
       </c>
       <c r="E4">
-        <v>13.95087617424957</v>
+        <v>13.55651671291657</v>
       </c>
       <c r="F4">
-        <v>56.07058682321665</v>
+        <v>56.09748026994533</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.018006037629342</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.01997275533918</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.76626471922395</v>
+        <v>31.69211702850601</v>
       </c>
       <c r="L4">
-        <v>16.86970170855536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18.62345832584172</v>
+      </c>
+      <c r="M4">
+        <v>16.75405336194982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.45446644078132</v>
+        <v>10.46371862950548</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.03877743360963</v>
+        <v>8.126742635153549</v>
       </c>
       <c r="E5">
-        <v>13.72744151757855</v>
+        <v>13.33250349710271</v>
       </c>
       <c r="F5">
-        <v>54.90230758063631</v>
+        <v>54.94940465339246</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.02379758339136</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.29178673832822</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.33402233509887</v>
+        <v>30.96719587859611</v>
       </c>
       <c r="L5">
-        <v>16.49558139775959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18.19316015540767</v>
+      </c>
+      <c r="M5">
+        <v>16.38100835665865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.42285078317324</v>
+        <v>10.43235673490318</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.016428532751069</v>
+        <v>8.105241474244009</v>
       </c>
       <c r="E6">
-        <v>13.69023884943454</v>
+        <v>13.29519235666786</v>
       </c>
       <c r="F6">
-        <v>54.70763002059456</v>
+        <v>54.75814203698324</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.024760419838705</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.16989124914653</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>18.26166410231988</v>
+        <v>30.84583788952748</v>
       </c>
       <c r="L6">
-        <v>16.4329289549291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18.12112378750478</v>
+      </c>
+      <c r="M6">
+        <v>16.31853175111249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64135514984118</v>
+        <v>10.64912674296075</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.171744115595127</v>
+        <v>8.254745499920304</v>
       </c>
       <c r="E7">
-        <v>13.94786935748833</v>
+        <v>13.5535029316737</v>
       </c>
       <c r="F7">
-        <v>56.05487634636061</v>
+        <v>56.08203829921656</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.018084077300734</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.01021723845979</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.76047414760876</v>
+        <v>31.68240586449119</v>
       </c>
       <c r="L7">
-        <v>16.86469143012638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18.61769404708335</v>
+      </c>
+      <c r="M7">
+        <v>16.74905777110025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.69682463182117</v>
+        <v>11.66569537012193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.862964950202484</v>
+        <v>8.922082264048631</v>
       </c>
       <c r="E8">
-        <v>15.07368681169073</v>
+        <v>14.68043441556421</v>
       </c>
       <c r="F8">
-        <v>61.90876857135844</v>
+        <v>61.84089899975413</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.98867055494748</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.58394058722814</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.88125550721135</v>
+        <v>35.23872554807408</v>
       </c>
       <c r="L8">
-        <v>18.69636381808375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20.72835902282454</v>
+      </c>
+      <c r="M8">
+        <v>18.57483111866792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.78312939688401</v>
+        <v>13.74428212492159</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.25825514093495</v>
+        <v>10.2760694547304</v>
       </c>
       <c r="E9">
-        <v>17.29182266529552</v>
+        <v>16.89267086646516</v>
       </c>
       <c r="F9">
-        <v>73.5566109646207</v>
+        <v>73.25629051396579</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.929687668622473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>42.20778646119897</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24.80729554223439</v>
+        <v>41.82320156496241</v>
       </c>
       <c r="L9">
-        <v>22.06564129358051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>24.63242588716406</v>
+      </c>
+      <c r="M9">
+        <v>21.93013926944389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23194763310113</v>
+        <v>15.18685553391584</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.3392510786064</v>
+        <v>11.32863139269111</v>
       </c>
       <c r="E10">
-        <v>19.00230887129378</v>
+        <v>18.59151802431047</v>
       </c>
       <c r="F10">
-        <v>82.21827530531928</v>
+        <v>81.8056531527378</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.88356354277157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.9737158339969</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>27.62438267227601</v>
+        <v>46.55300938909924</v>
       </c>
       <c r="L10">
-        <v>24.46123692415943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>27.42992986219343</v>
+      </c>
+      <c r="M10">
+        <v>24.31253199712012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.88028582630685</v>
+        <v>15.83197792309344</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.85527717797757</v>
+        <v>11.83153760476542</v>
       </c>
       <c r="E11">
-        <v>19.82520363752579</v>
+        <v>19.40646436351453</v>
       </c>
       <c r="F11">
-        <v>86.25398954818641</v>
+        <v>85.78640827840816</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.861293719929356</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>49.16574530970701</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>28.91648583446613</v>
+        <v>48.72532505774911</v>
       </c>
       <c r="L11">
-        <v>25.55256645316359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>28.711481633141</v>
+      </c>
+      <c r="M11">
+        <v>25.39657372946308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.12517773373991</v>
+        <v>16.07556146295143</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.05580152054212</v>
+        <v>12.02697963335382</v>
       </c>
       <c r="E12">
-        <v>20.1468697186872</v>
+        <v>19.72457107329469</v>
       </c>
       <c r="F12">
-        <v>87.80709692728021</v>
+        <v>87.31760625737375</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.852588807017074</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>50.00511877338468</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>29.41048500923545</v>
+        <v>49.55649838248528</v>
       </c>
       <c r="L12">
-        <v>25.96843040117133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>29.20111319140955</v>
+      </c>
+      <c r="M12">
+        <v>25.80939487519693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07244465981996</v>
+        <v>16.0231150244058</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.01235337866408</v>
+        <v>11.98463308131736</v>
       </c>
       <c r="E13">
-        <v>20.07707022445257</v>
+        <v>19.6555664597868</v>
       </c>
       <c r="F13">
-        <v>87.47127030528145</v>
+        <v>86.98655904645074</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.854477435086981</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>49.82381021689185</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>29.30381866875986</v>
+        <v>49.37699455142837</v>
       </c>
       <c r="L13">
-        <v>25.87870222699866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>29.09540712505654</v>
+      </c>
+      <c r="M13">
+        <v>25.72033686332949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90043903186011</v>
+        <v>15.85202559248316</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.8716599124995</v>
+        <v>11.84750518167795</v>
       </c>
       <c r="E14">
-        <v>19.85143916250862</v>
+        <v>19.43241941717886</v>
       </c>
       <c r="F14">
-        <v>86.38118489537241</v>
+        <v>85.91182732115391</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.860583635931915</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>49.2345721594582</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>28.95701006641312</v>
+        <v>48.79349409648624</v>
       </c>
       <c r="L14">
-        <v>25.58671053455328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>28.75165507051328</v>
+      </c>
+      <c r="M14">
+        <v>25.43047393589524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79503354738563</v>
+        <v>15.74716805369487</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.78620816409434</v>
+        <v>11.76421915559353</v>
       </c>
       <c r="E15">
-        <v>19.71467796912185</v>
+        <v>19.29710142319657</v>
       </c>
       <c r="F15">
-        <v>85.71712739624698</v>
+        <v>85.25701030187504</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.864285279361842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>48.87507374557772</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>28.74530977850844</v>
+        <v>48.43740390270705</v>
       </c>
       <c r="L15">
-        <v>25.40828309387877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>28.54177314277672</v>
+      </c>
+      <c r="M15">
+        <v>25.25330961108564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18943244286605</v>
+        <v>15.14454026235268</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.30613945705331</v>
+        <v>11.2963670037162</v>
       </c>
       <c r="E16">
-        <v>18.94970634766496</v>
+        <v>18.53936938373056</v>
       </c>
       <c r="F16">
-        <v>81.95730363384183</v>
+        <v>81.54815526461617</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.884986369922147</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>46.83139188402724</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>27.5403982403053</v>
+        <v>46.41188856132182</v>
       </c>
       <c r="L16">
-        <v>24.39012988507652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>27.34659200845052</v>
+      </c>
+      <c r="M16">
+        <v>24.24186824080686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81572228001075</v>
+        <v>14.77253765291675</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.01880328330904</v>
+        <v>11.01642880433162</v>
       </c>
       <c r="E17">
-        <v>18.49401162660858</v>
+        <v>18.08734491282023</v>
       </c>
       <c r="F17">
-        <v>79.68182043923417</v>
+        <v>79.30264325716857</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.897304316482267</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>45.58727935789306</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>26.80583886850068</v>
+        <v>45.17793544421943</v>
       </c>
       <c r="L17">
-        <v>23.7673461866386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>26.61750626007788</v>
+      </c>
+      <c r="M17">
+        <v>23.62281949801468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59969295439536</v>
+        <v>14.55745814217511</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.8556920858188</v>
+        <v>10.85756236766636</v>
       </c>
       <c r="E18">
-        <v>18.23584022778243</v>
+        <v>17.83104865607574</v>
       </c>
       <c r="F18">
-        <v>78.38114245371021</v>
+        <v>78.01888269068176</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.904274747352446</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.8735039579826</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>26.38409202155736</v>
+        <v>44.46971614671041</v>
       </c>
       <c r="L18">
-        <v>23.40910166450739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>26.19876417199032</v>
+      </c>
+      <c r="M18">
+        <v>23.26661069656946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52634057382678</v>
+        <v>14.48442262266422</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.80079699922265</v>
+        <v>10.80410468373916</v>
       </c>
       <c r="E19">
-        <v>18.14901662614014</v>
+        <v>17.74482307835749</v>
       </c>
       <c r="F19">
-        <v>77.94187998438838</v>
+        <v>77.58530529512927</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.906617265494174</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.63199943826327</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>26.24134700026757</v>
+        <v>44.23004927399845</v>
       </c>
       <c r="L19">
-        <v>23.28774177699304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>26.05701486314061</v>
+      </c>
+      <c r="M19">
+        <v>23.14592291642336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85561063901694</v>
+        <v>14.81224779004436</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.04915786369957</v>
+        <v>11.04599742187265</v>
       </c>
       <c r="E20">
-        <v>18.54209277990516</v>
+        <v>18.13506068811718</v>
       </c>
       <c r="F20">
-        <v>79.92314264377305</v>
+        <v>79.54081127520712</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.896005424624996</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>45.71949535312906</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>26.88393692855042</v>
+        <v>45.30910113652667</v>
       </c>
       <c r="L20">
-        <v>23.83363194562051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26.69503724727483</v>
+      </c>
+      <c r="M20">
+        <v>23.68871985371329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.95096885989426</v>
+        <v>15.90228917166309</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.91282945540849</v>
+        <v>11.88763147546386</v>
       </c>
       <c r="E21">
-        <v>19.91740252941164</v>
+        <v>19.49766995655035</v>
       </c>
       <c r="F21">
-        <v>86.70058127310499</v>
+        <v>86.22674958126369</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.858798346251738</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>49.40733406837661</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>29.05871634013589</v>
+        <v>48.96459358806275</v>
       </c>
       <c r="L21">
-        <v>25.67238108543523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>28.85247515647518</v>
+      </c>
+      <c r="M21">
+        <v>25.51552799221544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66397911826632</v>
+        <v>16.61125994341818</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.50849873756334</v>
+        <v>12.46814769888572</v>
       </c>
       <c r="E22">
-        <v>20.87794263217872</v>
+        <v>20.44653227983275</v>
       </c>
       <c r="F22">
-        <v>91.28430681935481</v>
+        <v>90.74375083862537</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.83282588760429</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>51.87661664723896</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>30.51011568450487</v>
+        <v>51.40818459950442</v>
       </c>
       <c r="L22">
-        <v>26.89121729048677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>30.29023500248694</v>
+      </c>
+      <c r="M22">
+        <v>26.7248096009687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.28328082273979</v>
+        <v>16.23278802505324</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.18696698392797</v>
+        <v>12.15481623429429</v>
       </c>
       <c r="E23">
-        <v>20.35795532932944</v>
+        <v>19.93317511751638</v>
       </c>
       <c r="F23">
-        <v>88.81865444082987</v>
+        <v>88.31461658847147</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.84687868365497</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>50.55063429096459</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>29.73128118889576</v>
+        <v>50.09646740496427</v>
       </c>
       <c r="L23">
-        <v>26.23805934449721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>29.5189614096688</v>
+      </c>
+      <c r="M23">
+        <v>26.07696260951213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83758084645668</v>
+        <v>14.79429866847256</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.03542818370943</v>
+        <v>11.03262309614368</v>
       </c>
       <c r="E24">
-        <v>18.52034365945238</v>
+        <v>18.11347747587419</v>
       </c>
       <c r="F24">
-        <v>79.81401819504424</v>
+        <v>79.43311377449864</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.896592994386204</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>45.65971629047877</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>26.84862726785661</v>
+        <v>45.24979778527506</v>
       </c>
       <c r="L24">
-        <v>23.80366493467136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>26.65998439390213</v>
+      </c>
+      <c r="M24">
+        <v>23.65892742457659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23546431982466</v>
+        <v>13.19874577939725</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.873987069618174</v>
+        <v>9.902496907278156</v>
       </c>
       <c r="E25">
-        <v>16.68442970687472</v>
+        <v>16.28791839939495</v>
       </c>
       <c r="F25">
-        <v>70.39776238550395</v>
+        <v>70.13779818357179</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.945956145396151</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.44543572381806</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.76363231479651</v>
+        <v>40.07237183701111</v>
       </c>
       <c r="L25">
-        <v>21.17312912272355</v>
+        <v>23.59510383750124</v>
+      </c>
+      <c r="M25">
+        <v>21.04177594189696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.96457391020222</v>
+        <v>7.266886067828782</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.105211749810396</v>
+        <v>7.438800526763821</v>
       </c>
       <c r="E2">
-        <v>14.9840026247411</v>
+        <v>9.269418573836282</v>
       </c>
       <c r="F2">
-        <v>63.3843353691399</v>
+        <v>58.36039821580047</v>
       </c>
       <c r="G2">
-        <v>1.980669202351437</v>
+        <v>1.899280324608112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>36.1722662292726</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>21.28226563333116</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>19.05273236929281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>37.90266977577063</v>
+      </c>
+      <c r="N2">
+        <v>13.91703520147046</v>
+      </c>
+      <c r="O2">
+        <v>46.84559373641173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.10640058976078</v>
+        <v>6.906692912279236</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.576899564829045</v>
+        <v>6.810683713253393</v>
       </c>
       <c r="E3">
-        <v>14.10218886561814</v>
+        <v>9.022428897123108</v>
       </c>
       <c r="F3">
-        <v>58.89054902376137</v>
+        <v>53.62602652514585</v>
       </c>
       <c r="G3">
-        <v>2.003821040857884</v>
+        <v>1.924087750882606</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>33.43230874058597</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19.65633920162579</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>17.64839839939441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.07785919307037</v>
+      </c>
+      <c r="N3">
+        <v>13.81477268751717</v>
+      </c>
+      <c r="O3">
+        <v>43.01535345570051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.65165075179871</v>
+        <v>6.679125344704071</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.256498513066807</v>
+        <v>6.41855406345878</v>
       </c>
       <c r="E4">
-        <v>13.55651671291657</v>
+        <v>8.869147850829091</v>
       </c>
       <c r="F4">
-        <v>56.09748026994533</v>
+        <v>50.66244723542207</v>
       </c>
       <c r="G4">
-        <v>2.018006037629342</v>
+        <v>1.939187661552478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>31.69211702850601</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>18.62345832584172</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>16.75405336194982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.28288271288839</v>
+      </c>
+      <c r="N4">
+        <v>13.75563764290467</v>
+      </c>
+      <c r="O4">
+        <v>40.61624083793861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.46371862950548</v>
+        <v>6.584897687364117</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.126742635153549</v>
+        <v>6.256659785422154</v>
       </c>
       <c r="E5">
-        <v>13.33250349710271</v>
+        <v>8.806302756467636</v>
       </c>
       <c r="F5">
-        <v>54.94940465339246</v>
+        <v>49.43780247923528</v>
       </c>
       <c r="G5">
-        <v>2.02379758339136</v>
+        <v>1.945332984321642</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30.96719587859611</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>18.19316015540767</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>16.38100835665865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32.53486099074187</v>
+      </c>
+      <c r="N5">
+        <v>13.73251808268303</v>
+      </c>
+      <c r="O5">
+        <v>39.62439931239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.43235673490318</v>
+        <v>6.569165068474425</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.105241474244009</v>
+        <v>6.229638451880624</v>
       </c>
       <c r="E6">
-        <v>13.29519235666786</v>
+        <v>8.795845640144458</v>
       </c>
       <c r="F6">
-        <v>54.75814203698324</v>
+        <v>49.23335922159512</v>
       </c>
       <c r="G6">
-        <v>2.024760419838705</v>
+        <v>1.946353572751201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30.84583788952748</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>18.12112378750478</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>16.31853175111249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.40961836910306</v>
+      </c>
+      <c r="N6">
+        <v>13.72873970591534</v>
+      </c>
+      <c r="O6">
+        <v>39.4587908294184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64912674296075</v>
+        <v>6.677860424614216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.254745499920304</v>
+        <v>6.416379757647274</v>
       </c>
       <c r="E7">
-        <v>13.5535029316737</v>
+        <v>8.868301789298178</v>
       </c>
       <c r="F7">
-        <v>56.08203829921656</v>
+        <v>50.64600305596218</v>
       </c>
       <c r="G7">
-        <v>2.018084077300734</v>
+        <v>1.93927054218541</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>31.68240586449119</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>18.61769404708335</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>16.74905777110025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.27286324084911</v>
+      </c>
+      <c r="N7">
+        <v>13.75532181286717</v>
+      </c>
+      <c r="O7">
+        <v>40.60292459778071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.66569537012193</v>
+        <v>7.144085897873119</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.922082264048631</v>
+        <v>7.223251924951637</v>
       </c>
       <c r="E8">
-        <v>14.68043441556421</v>
+        <v>9.184601319293826</v>
       </c>
       <c r="F8">
-        <v>61.84089899975413</v>
+        <v>56.73789485433586</v>
       </c>
       <c r="G8">
-        <v>1.98867055494748</v>
+        <v>1.907878125178692</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.23872554807408</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>20.72835902282454</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>18.57483111866792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36.94035004361876</v>
+      </c>
+      <c r="N8">
+        <v>13.88105651648836</v>
+      </c>
+      <c r="O8">
+        <v>45.53320445851172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.74428212492159</v>
+        <v>8.003431053785921</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.2760694547304</v>
+        <v>8.782160405142227</v>
       </c>
       <c r="E9">
-        <v>16.89267086646516</v>
+        <v>9.792914756560464</v>
       </c>
       <c r="F9">
-        <v>73.25629051396579</v>
+        <v>68.40206429820826</v>
       </c>
       <c r="G9">
-        <v>1.929687668622473</v>
+        <v>1.843779210034889</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>41.82320156496241</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>24.63242588716406</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>21.93013926944389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43.73041465415558</v>
+      </c>
+      <c r="N9">
+        <v>14.15306856045827</v>
+      </c>
+      <c r="O9">
+        <v>54.9648824997568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.18685553391584</v>
+        <v>8.651458348887443</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.32863139269111</v>
+        <v>9.969038753194637</v>
       </c>
       <c r="E10">
-        <v>18.59151802431047</v>
+        <v>10.23983912534987</v>
       </c>
       <c r="F10">
-        <v>81.8056531527378</v>
+        <v>77.14263051508665</v>
       </c>
       <c r="G10">
-        <v>1.88356354277157</v>
+        <v>1.792152532454332</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>46.55300938909924</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>27.42992986219343</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>24.31253199712012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>48.62966303408188</v>
+      </c>
+      <c r="N10">
+        <v>14.36120860643116</v>
+      </c>
+      <c r="O10">
+        <v>62.03221253829289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.83197792309344</v>
+        <v>8.965223156251485</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.83153760476542</v>
+        <v>10.53911207185333</v>
       </c>
       <c r="E11">
-        <v>19.40646436351453</v>
+        <v>10.44799525286219</v>
       </c>
       <c r="F11">
-        <v>85.78640827840816</v>
+        <v>81.28705458798045</v>
       </c>
       <c r="G11">
-        <v>1.861293719929356</v>
+        <v>1.766553590054014</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>48.72532505774911</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>28.711481633141</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>25.39657372946308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>50.89725603091095</v>
+      </c>
+      <c r="N11">
+        <v>14.45487466074282</v>
+      </c>
+      <c r="O11">
+        <v>65.3845624942751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.07556146295143</v>
+        <v>9.081830206121069</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.02697963335382</v>
+        <v>10.76232493826207</v>
       </c>
       <c r="E12">
-        <v>19.72457107329469</v>
+        <v>10.5284042235111</v>
       </c>
       <c r="F12">
-        <v>87.31760625737375</v>
+        <v>82.89925796835202</v>
       </c>
       <c r="G12">
-        <v>1.852588807017074</v>
+        <v>1.75639593294091</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>49.55649838248528</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>29.20111319140955</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>25.80939487519693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>51.76973183386259</v>
+      </c>
+      <c r="N12">
+        <v>14.48978189410309</v>
+      </c>
+      <c r="O12">
+        <v>66.68899505612266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.0231150244058</v>
+        <v>9.05681297445555</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.98463308131736</v>
+        <v>10.71385916961031</v>
       </c>
       <c r="E13">
-        <v>19.6555664597868</v>
+        <v>10.5109943840097</v>
       </c>
       <c r="F13">
-        <v>86.98655904645074</v>
+        <v>82.54972664687607</v>
       </c>
       <c r="G13">
-        <v>1.854477435086981</v>
+        <v>1.758607731959477</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>49.37699455142837</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>29.09540712505654</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>25.72033686332949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51.58103479311668</v>
+      </c>
+      <c r="N13">
+        <v>14.48229835997809</v>
+      </c>
+      <c r="O13">
+        <v>66.40617075420258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.85202559248316</v>
+        <v>8.974860033500638</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.84750518167795</v>
+        <v>10.55730561371345</v>
       </c>
       <c r="E14">
-        <v>19.43241941717886</v>
+        <v>10.45457121820635</v>
       </c>
       <c r="F14">
-        <v>85.91182732115391</v>
+        <v>81.41869010191515</v>
       </c>
       <c r="G14">
-        <v>1.860583635931915</v>
+        <v>1.765728445972709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>48.79349409648624</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>28.75165507051328</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>25.43047393589524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>50.96869568563029</v>
+      </c>
+      <c r="N14">
+        <v>14.45776103211048</v>
+      </c>
+      <c r="O14">
+        <v>65.4910605974888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.74716805369487</v>
+        <v>8.924377505161052</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.76421915559353</v>
+        <v>10.46248488843252</v>
       </c>
       <c r="E15">
-        <v>19.29710142319657</v>
+        <v>10.42025461265346</v>
       </c>
       <c r="F15">
-        <v>85.25701030187504</v>
+        <v>80.73219575768896</v>
       </c>
       <c r="G15">
-        <v>1.864285279361842</v>
+        <v>1.770023447060207</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>48.43740390270705</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>28.54177314277672</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>25.25330961108564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>50.59573425187869</v>
+      </c>
+      <c r="N15">
+        <v>14.44264156494955</v>
+      </c>
+      <c r="O15">
+        <v>64.93567583213637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14454026235268</v>
+        <v>8.630637649024827</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.2963670037162</v>
+        <v>9.932612367126193</v>
       </c>
       <c r="E16">
-        <v>18.53936938373056</v>
+        <v>10.22639520781837</v>
       </c>
       <c r="F16">
-        <v>81.54815526461617</v>
+        <v>76.87654884167239</v>
       </c>
       <c r="G16">
-        <v>1.884986369922147</v>
+        <v>1.793771085297482</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>46.41188856132182</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>27.34659200845052</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>24.24186824080686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48.48286194726406</v>
+      </c>
+      <c r="N16">
+        <v>14.35503628284835</v>
+      </c>
+      <c r="O16">
+        <v>61.81702186414327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.77253765291675</v>
+        <v>8.446384618175138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.01642880433162</v>
+        <v>9.61697171151514</v>
       </c>
       <c r="E17">
-        <v>18.08734491282023</v>
+        <v>10.10916483503371</v>
       </c>
       <c r="F17">
-        <v>79.30264325716857</v>
+        <v>74.56486011415247</v>
       </c>
       <c r="G17">
-        <v>1.897304316482267</v>
+        <v>1.807707627370774</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>45.17793544421943</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>26.61750626007788</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>23.62281949801468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>47.20129306441615</v>
+      </c>
+      <c r="N17">
+        <v>14.30080094572057</v>
+      </c>
+      <c r="O17">
+        <v>59.94762517088349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55745814217511</v>
+        <v>8.339381821499261</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.85756236766636</v>
+        <v>9.438021602674418</v>
       </c>
       <c r="E18">
-        <v>17.83104865607574</v>
+        <v>10.04211689229003</v>
       </c>
       <c r="F18">
-        <v>78.01888269068176</v>
+        <v>73.24958989524902</v>
       </c>
       <c r="G18">
-        <v>1.904274747352446</v>
+        <v>1.815537400772349</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>44.46971614671041</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>26.19876417199032</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>23.26661069656946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.46717584960609</v>
+      </c>
+      <c r="N18">
+        <v>14.26954398512773</v>
+      </c>
+      <c r="O18">
+        <v>58.88411165418779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.48442262266422</v>
+        <v>8.309301140829698</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.80410468373916</v>
+        <v>9.377809898549202</v>
       </c>
       <c r="E19">
-        <v>17.74482307835749</v>
+        <v>10.01946303937254</v>
       </c>
       <c r="F19">
-        <v>77.58530529512927</v>
+        <v>72.80630167925686</v>
       </c>
       <c r="G19">
-        <v>1.906617265494174</v>
+        <v>1.818160113028001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>44.23004927399845</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>26.05701486314061</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>23.14592291642336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>46.21894492510391</v>
+      </c>
+      <c r="N19">
+        <v>14.25895954942296</v>
+      </c>
+      <c r="O19">
+        <v>58.5256881334664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.81224779004436</v>
+        <v>8.466155322835689</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.04599742187265</v>
+        <v>9.650286306331596</v>
       </c>
       <c r="E20">
-        <v>18.13506068811718</v>
+        <v>10.12160037981374</v>
       </c>
       <c r="F20">
-        <v>79.54081127520712</v>
+        <v>74.80935238370016</v>
       </c>
       <c r="G20">
-        <v>1.896005424624996</v>
+        <v>1.806244233142043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>45.30910113652667</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>26.69503724727483</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>23.68871985371329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.33736038630371</v>
+      </c>
+      <c r="N20">
+        <v>14.30658315015527</v>
+      </c>
+      <c r="O20">
+        <v>60.145326907709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.90228917166309</v>
+        <v>8.998990539226186</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.88763147546386</v>
+        <v>10.60305767175238</v>
       </c>
       <c r="E21">
-        <v>19.49766995655035</v>
+        <v>10.47109052369332</v>
       </c>
       <c r="F21">
-        <v>86.22674958126369</v>
+        <v>81.74954140476835</v>
       </c>
       <c r="G21">
-        <v>1.858798346251738</v>
+        <v>1.763651229251052</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>48.96459358806275</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>28.85247515647518</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>25.51552799221544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>51.14809245434208</v>
+      </c>
+      <c r="N21">
+        <v>14.46498804310842</v>
+      </c>
+      <c r="O21">
+        <v>65.75873799839222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61125994341818</v>
+        <v>9.334436870916056</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.46814769888572</v>
+        <v>11.27143023074459</v>
       </c>
       <c r="E22">
-        <v>20.44653227983275</v>
+        <v>10.70978936484399</v>
       </c>
       <c r="F22">
-        <v>90.74375083862537</v>
+        <v>86.55273116111132</v>
       </c>
       <c r="G22">
-        <v>1.83282588760429</v>
+        <v>1.732956285597011</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>51.40818459950442</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>30.29023500248694</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>26.7248096009687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>53.72684006366151</v>
+      </c>
+      <c r="N22">
+        <v>14.5648218536429</v>
+      </c>
+      <c r="O22">
+        <v>69.64590363316226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.23278802505324</v>
+        <v>9.156527662978633</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.15481623429429</v>
+        <v>10.90901811404455</v>
       </c>
       <c r="E23">
-        <v>19.93317511751638</v>
+        <v>10.58094004846523</v>
       </c>
       <c r="F23">
-        <v>88.31461658847147</v>
+        <v>83.955397683646</v>
       </c>
       <c r="G23">
-        <v>1.84687868365497</v>
+        <v>1.749680385339903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>50.09646740496427</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>29.5189614096688</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>26.07696260951213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>52.33835140864549</v>
+      </c>
+      <c r="N23">
+        <v>14.51209027688324</v>
+      </c>
+      <c r="O23">
+        <v>67.54364025378329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.79429866847256</v>
+        <v>8.45722187684844</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.03262309614368</v>
+        <v>9.635217141435188</v>
       </c>
       <c r="E24">
-        <v>18.11347747587419</v>
+        <v>10.11597723762751</v>
       </c>
       <c r="F24">
-        <v>79.43311377449864</v>
+        <v>74.69877583956003</v>
       </c>
       <c r="G24">
-        <v>1.896592994386204</v>
+        <v>1.806906391547897</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>45.24979778527506</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>26.65998439390213</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>23.65892742457659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>47.27583656889085</v>
+      </c>
+      <c r="N24">
+        <v>14.30396922588298</v>
+      </c>
+      <c r="O24">
+        <v>60.05591199595037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19874577939725</v>
+        <v>7.777315883252142</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.902496907278156</v>
+        <v>8.35829690845566</v>
       </c>
       <c r="E25">
-        <v>16.28791839939495</v>
+        <v>9.629259427415059</v>
       </c>
       <c r="F25">
-        <v>70.13779818357179</v>
+        <v>65.24854025165962</v>
       </c>
       <c r="G25">
-        <v>1.945956145396151</v>
+        <v>1.861639593473631</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>40.07237183701111</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>23.59510383750124</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>21.04177594189696</v>
+        <v>41.92354707216613</v>
+      </c>
+      <c r="N25">
+        <v>14.07734924254463</v>
+      </c>
+      <c r="O25">
+        <v>52.41536855108575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.266886067828782</v>
+        <v>11.62837614167475</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.438800526763821</v>
+        <v>2.472245767215526</v>
       </c>
       <c r="E2">
-        <v>9.269418573836282</v>
+        <v>6.569264967328109</v>
       </c>
       <c r="F2">
-        <v>58.36039821580047</v>
+        <v>37.34508891015003</v>
       </c>
       <c r="G2">
-        <v>1.899280324608112</v>
+        <v>2.148812748472125</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>23.20532869620644</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.078856127546929</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.34043544720095</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.887478320592228</v>
       </c>
       <c r="M2">
-        <v>37.90266977577063</v>
+        <v>11.40317150964187</v>
       </c>
       <c r="N2">
-        <v>13.91703520147046</v>
+        <v>16.63028463748733</v>
       </c>
       <c r="O2">
-        <v>46.84559373641173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.906692912279236</v>
+        <v>11.11207648172644</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.810683713253393</v>
+        <v>2.332075318948429</v>
       </c>
       <c r="E3">
-        <v>9.022428897123108</v>
+        <v>6.38917534640392</v>
       </c>
       <c r="F3">
-        <v>53.62602652514585</v>
+        <v>36.72349253190944</v>
       </c>
       <c r="G3">
-        <v>1.924087750882606</v>
+        <v>2.157690655254885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>23.22410244263216</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.028335567044466</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.47808090979294</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.67523492932917</v>
       </c>
       <c r="M3">
-        <v>35.07785919307037</v>
+        <v>11.13801871207936</v>
       </c>
       <c r="N3">
-        <v>13.81477268751717</v>
+        <v>16.81644779582099</v>
       </c>
       <c r="O3">
-        <v>43.01535345570051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679125344704071</v>
+        <v>10.78910406863376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.41855406345878</v>
+        <v>2.244000460709279</v>
       </c>
       <c r="E4">
-        <v>8.869147850829091</v>
+        <v>6.277021022262439</v>
       </c>
       <c r="F4">
-        <v>50.66244723542207</v>
+        <v>36.3638125419161</v>
       </c>
       <c r="G4">
-        <v>1.939187661552478</v>
+        <v>2.16329201203279</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.24773871725635</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.997267209443562</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.93547529582761</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.54792111143326</v>
       </c>
       <c r="M4">
-        <v>33.28288271288839</v>
+        <v>10.97831163071345</v>
       </c>
       <c r="N4">
-        <v>13.75563764290467</v>
+        <v>16.9347676681276</v>
       </c>
       <c r="O4">
-        <v>40.61624083793861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.584897687364117</v>
+        <v>10.65617737923413</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.256659785422154</v>
+        <v>2.207588673217526</v>
       </c>
       <c r="E5">
-        <v>8.806302756467636</v>
+        <v>6.230910877284941</v>
       </c>
       <c r="F5">
-        <v>49.43780247923528</v>
+        <v>36.22271762214098</v>
       </c>
       <c r="G5">
-        <v>1.945332984321642</v>
+        <v>2.165613928574874</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.26030539610541</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.984584093463777</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.71131109609438</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.496834805620731</v>
       </c>
       <c r="M5">
-        <v>32.53486099074187</v>
+        <v>10.91407097342326</v>
       </c>
       <c r="N5">
-        <v>13.73251808268303</v>
+        <v>16.98399143080747</v>
       </c>
       <c r="O5">
-        <v>39.62439931239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.569165068474425</v>
+        <v>10.63403166885808</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.229638451880624</v>
+        <v>2.20151072612911</v>
       </c>
       <c r="E6">
-        <v>8.795845640144458</v>
+        <v>6.223229571716129</v>
       </c>
       <c r="F6">
-        <v>49.23335922159512</v>
+        <v>36.19961809595139</v>
       </c>
       <c r="G6">
-        <v>1.946353572751201</v>
+        <v>2.166001898712252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.26256617873704</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.982476426119606</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.673913030654</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.488401152013633</v>
       </c>
       <c r="M6">
-        <v>32.40961836910306</v>
+        <v>10.90345650885555</v>
       </c>
       <c r="N6">
-        <v>13.72873970591534</v>
+        <v>16.99222580886507</v>
       </c>
       <c r="O6">
-        <v>39.4587908294184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.677860424614216</v>
+        <v>10.78731642290737</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.416379757647274</v>
+        <v>2.243511523165421</v>
       </c>
       <c r="E7">
-        <v>8.868301789298178</v>
+        <v>6.276400819929521</v>
       </c>
       <c r="F7">
-        <v>50.64600305596218</v>
+        <v>36.36188758105506</v>
       </c>
       <c r="G7">
-        <v>1.93927054218541</v>
+        <v>2.163323165058978</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.24789645634106</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.997096264684281</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.93246411191032</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.547228871548839</v>
       </c>
       <c r="M7">
-        <v>33.27286324084911</v>
+        <v>10.97744176944072</v>
       </c>
       <c r="N7">
-        <v>13.75532181286717</v>
+        <v>16.93542743970304</v>
       </c>
       <c r="O7">
-        <v>40.60292459778071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.144085897873119</v>
+        <v>11.45169734479563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.223251924951637</v>
+        <v>2.424321472799944</v>
       </c>
       <c r="E8">
-        <v>9.184601319293826</v>
+        <v>6.507490869951503</v>
       </c>
       <c r="F8">
-        <v>56.73789485433586</v>
+        <v>37.12617225755276</v>
       </c>
       <c r="G8">
-        <v>1.907878125178692</v>
+        <v>2.151843608544136</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>23.2092211566453</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.061440238857845</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.0459523057538</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.813696660545551</v>
       </c>
       <c r="M8">
-        <v>36.94035004361876</v>
+        <v>11.31114080768538</v>
       </c>
       <c r="N8">
-        <v>13.88105651648836</v>
+        <v>16.6936387132976</v>
       </c>
       <c r="O8">
-        <v>45.53320445851172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.003431053785921</v>
+        <v>12.70037674324387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.782160405142227</v>
+        <v>2.763885291938892</v>
       </c>
       <c r="E9">
-        <v>9.792914756560464</v>
+        <v>6.948780162120495</v>
       </c>
       <c r="F9">
-        <v>68.40206429820826</v>
+        <v>38.8013503361679</v>
       </c>
       <c r="G9">
-        <v>1.843779210034889</v>
+        <v>2.130450360859995</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23.23460559942979</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.18774851142532</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.11700342606538</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.358438346059749</v>
       </c>
       <c r="M9">
-        <v>43.73041465415558</v>
+        <v>11.98748843409131</v>
       </c>
       <c r="N9">
-        <v>14.15306856045827</v>
+        <v>16.25151406779071</v>
       </c>
       <c r="O9">
-        <v>54.9648824997568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.651458348887443</v>
+        <v>13.57738358053184</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.969038753194637</v>
+        <v>3.005896481976726</v>
       </c>
       <c r="E10">
-        <v>10.23983912534987</v>
+        <v>7.267024359641828</v>
       </c>
       <c r="F10">
-        <v>77.14263051508665</v>
+        <v>40.14243662102759</v>
       </c>
       <c r="G10">
-        <v>1.792152532454332</v>
+        <v>2.11530196983195</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>23.32237930297614</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.281428909661833</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.5744611607044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.770264728391538</v>
       </c>
       <c r="M10">
-        <v>48.62966303408188</v>
+        <v>12.49459749716429</v>
       </c>
       <c r="N10">
-        <v>14.36120860643116</v>
+        <v>15.94657011764022</v>
       </c>
       <c r="O10">
-        <v>62.03221253829289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.965223156251485</v>
+        <v>13.96651051377995</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.53911207185333</v>
+        <v>3.114847956368985</v>
       </c>
       <c r="E11">
-        <v>10.44799525286219</v>
+        <v>7.410897349904022</v>
       </c>
       <c r="F11">
-        <v>81.28705458798045</v>
+        <v>40.77718307898585</v>
       </c>
       <c r="G11">
-        <v>1.766553590054014</v>
+        <v>2.108506579919807</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>23.37902944149349</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.324442434545265</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.32508230474746</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.95982916159792</v>
       </c>
       <c r="M11">
-        <v>50.89725603091095</v>
+        <v>12.72694874615784</v>
       </c>
       <c r="N11">
-        <v>14.45487466074282</v>
+        <v>15.81229402047172</v>
       </c>
       <c r="O11">
-        <v>65.3845624942751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.081830206121069</v>
+        <v>14.11238890562162</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.76232493826207</v>
+        <v>3.155988176365623</v>
       </c>
       <c r="E12">
-        <v>10.5284042235111</v>
+        <v>7.465290168106513</v>
       </c>
       <c r="F12">
-        <v>82.89925796835202</v>
+        <v>41.02116337293475</v>
       </c>
       <c r="G12">
-        <v>1.75639593294091</v>
+        <v>2.105944568827709</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>23.40303573817105</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.340807073395204</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.60468508410983</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.03191477025573</v>
       </c>
       <c r="M12">
-        <v>51.76973183386259</v>
+        <v>12.81513631938875</v>
       </c>
       <c r="N12">
-        <v>14.48978189410309</v>
+        <v>15.76210256734219</v>
       </c>
       <c r="O12">
-        <v>66.68899505612266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.05681297445555</v>
+        <v>14.08103778284377</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.71385916961031</v>
+        <v>3.147132295978563</v>
       </c>
       <c r="E13">
-        <v>10.5109943840097</v>
+        <v>7.45357892250096</v>
       </c>
       <c r="F13">
-        <v>82.54972664687607</v>
+        <v>40.9684557857705</v>
       </c>
       <c r="G13">
-        <v>1.758607731959477</v>
+        <v>2.106495885692646</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>23.39774948904121</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.337278929932774</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.54467173996397</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.01637662646753</v>
       </c>
       <c r="M13">
-        <v>51.58103479311668</v>
+        <v>12.79613511255611</v>
       </c>
       <c r="N13">
-        <v>14.48229835997809</v>
+        <v>15.77288270442672</v>
       </c>
       <c r="O13">
-        <v>66.40617075420258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.974860033500638</v>
+        <v>13.97854187273352</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.55730561371345</v>
+        <v>3.11823464693795</v>
       </c>
       <c r="E14">
-        <v>10.45457121820635</v>
+        <v>7.415373799631282</v>
       </c>
       <c r="F14">
-        <v>81.41869010191515</v>
+        <v>40.79718257518242</v>
       </c>
       <c r="G14">
-        <v>1.765728445972709</v>
+        <v>2.108295591371018</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>23.38095238003847</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.325787115066074</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.34817758674055</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.965753715952211</v>
       </c>
       <c r="M14">
-        <v>50.96869568563029</v>
+        <v>12.7342001458186</v>
       </c>
       <c r="N14">
-        <v>14.45776103211048</v>
+        <v>15.80815148036097</v>
       </c>
       <c r="O14">
-        <v>65.4910605974888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.924377505161052</v>
+        <v>13.91556651189314</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.46248488843252</v>
+        <v>3.100520223253963</v>
       </c>
       <c r="E15">
-        <v>10.42025461265346</v>
+        <v>7.391961830314473</v>
       </c>
       <c r="F15">
-        <v>80.73219575768896</v>
+        <v>40.69274593437618</v>
       </c>
       <c r="G15">
-        <v>1.770023447060207</v>
+        <v>2.109399350354257</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>23.37100086419588</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.318758597595307</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.22721906889819</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.934784613384538</v>
       </c>
       <c r="M15">
-        <v>50.59573425187869</v>
+        <v>12.6962884092279</v>
       </c>
       <c r="N15">
-        <v>14.44264156494955</v>
+        <v>15.82984062734702</v>
       </c>
       <c r="O15">
-        <v>64.93567583213637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.630637649024827</v>
+        <v>13.55174966155694</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.932612367126193</v>
+        <v>2.998757131930416</v>
       </c>
       <c r="E16">
-        <v>10.22639520781837</v>
+        <v>7.257607128289233</v>
       </c>
       <c r="F16">
-        <v>76.87654884167239</v>
+        <v>40.10145636800036</v>
       </c>
       <c r="G16">
-        <v>1.793771085297482</v>
+        <v>2.115747781459764</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23.31902616957542</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.278627464516131</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.5247491969623</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.757919257780902</v>
       </c>
       <c r="M16">
-        <v>48.48286194726406</v>
+        <v>12.47944283345638</v>
       </c>
       <c r="N16">
-        <v>14.35503628284835</v>
+        <v>15.9554361583356</v>
       </c>
       <c r="O16">
-        <v>61.81702186414327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.446384618175138</v>
+        <v>13.32599173944685</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.61697171151514</v>
+        <v>2.936067742910804</v>
       </c>
       <c r="E17">
-        <v>10.10916483503371</v>
+        <v>7.174981219170401</v>
       </c>
       <c r="F17">
-        <v>74.56486011415247</v>
+        <v>39.74508256710608</v>
       </c>
       <c r="G17">
-        <v>1.807707627370774</v>
+        <v>2.11966513958727</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>23.29152812277725</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.254123121844531</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.14833924645291</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.649972126466597</v>
       </c>
       <c r="M17">
-        <v>47.20129306441615</v>
+        <v>12.34681160530041</v>
       </c>
       <c r="N17">
-        <v>14.30080094572057</v>
+        <v>16.03363399885206</v>
       </c>
       <c r="O17">
-        <v>59.94762517088349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.339381821499261</v>
+        <v>13.19521908046737</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.438021602674418</v>
+        <v>2.899899914609504</v>
       </c>
       <c r="E18">
-        <v>10.04211689229003</v>
+        <v>7.127369608928659</v>
       </c>
       <c r="F18">
-        <v>73.24958989524902</v>
+        <v>39.54242389170187</v>
       </c>
       <c r="G18">
-        <v>1.815537400772349</v>
+        <v>2.121927470606866</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>23.27727647420761</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.240065044770743</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.93297715315959</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.588093608035427</v>
       </c>
       <c r="M18">
-        <v>46.46717584960609</v>
+        <v>12.27068410949065</v>
       </c>
       <c r="N18">
-        <v>14.26954398512773</v>
+        <v>16.07902841657668</v>
       </c>
       <c r="O18">
-        <v>58.88411165418779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.309301140829698</v>
+        <v>13.15078547225418</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.377809898549202</v>
+        <v>2.887633808773887</v>
       </c>
       <c r="E19">
-        <v>10.01946303937254</v>
+        <v>7.111233023937491</v>
       </c>
       <c r="F19">
-        <v>72.80630167925686</v>
+        <v>39.4742035291857</v>
       </c>
       <c r="G19">
-        <v>1.818160113028001</v>
+        <v>2.12269510443404</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.27271538464189</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.23531088768673</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.85977911391093</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.567179315041857</v>
       </c>
       <c r="M19">
-        <v>46.21894492510391</v>
+        <v>12.24493717082678</v>
       </c>
       <c r="N19">
-        <v>14.25895954942296</v>
+        <v>16.09446937435278</v>
       </c>
       <c r="O19">
-        <v>58.5256881334664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.466155322835689</v>
+        <v>13.35012006547061</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.650286306331596</v>
+        <v>2.942752260087795</v>
       </c>
       <c r="E20">
-        <v>10.12160037981374</v>
+        <v>7.18378566310592</v>
       </c>
       <c r="F20">
-        <v>74.80935238370016</v>
+        <v>39.78277882397004</v>
       </c>
       <c r="G20">
-        <v>1.806244233142043</v>
+        <v>2.119247198416421</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>23.29429235843891</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.256727775834792</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.18806455323873</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.661441722737631</v>
       </c>
       <c r="M20">
-        <v>47.33736038630371</v>
+        <v>12.36091432840234</v>
       </c>
       <c r="N20">
-        <v>14.30658315015527</v>
+        <v>16.02526642917933</v>
       </c>
       <c r="O20">
-        <v>60.145326907709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.998990539226186</v>
+        <v>14.00868784648262</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.60305767175238</v>
+        <v>3.126725365507465</v>
       </c>
       <c r="E21">
-        <v>10.47109052369332</v>
+        <v>7.426597618731632</v>
       </c>
       <c r="F21">
-        <v>81.74954140476835</v>
+        <v>40.84739091979404</v>
       </c>
       <c r="G21">
-        <v>1.763651229251052</v>
+        <v>2.107766689900019</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>23.38581554782512</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.329160303337565</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.40601749749292</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.980614807328255</v>
       </c>
       <c r="M21">
-        <v>51.14809245434208</v>
+        <v>12.7523867468393</v>
       </c>
       <c r="N21">
-        <v>14.46498804310842</v>
+        <v>15.79777422663013</v>
       </c>
       <c r="O21">
-        <v>65.75873799839222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.334436870916056</v>
+        <v>14.43048480645311</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.27143023074459</v>
+        <v>3.246305166770301</v>
       </c>
       <c r="E22">
-        <v>10.70978936484399</v>
+        <v>7.584796421278087</v>
       </c>
       <c r="F22">
-        <v>86.55273116111132</v>
+        <v>41.56429626264349</v>
       </c>
       <c r="G22">
-        <v>1.732956285597011</v>
+        <v>2.100327774130196</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>23.46059398855814</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.376954809222974</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.21136529930988</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.19096891699465</v>
       </c>
       <c r="M22">
-        <v>53.72684006366151</v>
+        <v>13.00939814278039</v>
       </c>
       <c r="N22">
-        <v>14.5648218536429</v>
+        <v>15.65292959976395</v>
       </c>
       <c r="O22">
-        <v>69.64590363316226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.156527662978633</v>
+        <v>14.20616744302233</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.90901811404455</v>
+        <v>3.182526079611729</v>
       </c>
       <c r="E23">
-        <v>10.58094004846523</v>
+        <v>7.500392419755094</v>
       </c>
       <c r="F23">
-        <v>83.955397683646</v>
+        <v>41.17971080374175</v>
       </c>
       <c r="G23">
-        <v>1.749680385339903</v>
+        <v>2.104293077135656</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>23.41926266040162</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.351397336634814</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.78395621262811</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.07854206075892</v>
       </c>
       <c r="M23">
-        <v>52.33835140864549</v>
+        <v>12.872130311386</v>
       </c>
       <c r="N23">
-        <v>14.51209027688324</v>
+        <v>15.7298782956162</v>
       </c>
       <c r="O23">
-        <v>67.54364025378329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.45722187684844</v>
+        <v>13.33921470122387</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.635217141435188</v>
+        <v>2.939730588465095</v>
       </c>
       <c r="E24">
-        <v>10.11597723762751</v>
+        <v>7.179805516068677</v>
       </c>
       <c r="F24">
-        <v>74.69877583956003</v>
+        <v>39.76572941948011</v>
       </c>
       <c r="G24">
-        <v>1.806906391547897</v>
+        <v>2.119436117694916</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>23.29303780793841</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.255550120373976</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.17011014378509</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.656255750760456</v>
       </c>
       <c r="M24">
-        <v>47.27583656889085</v>
+        <v>12.35453809815374</v>
       </c>
       <c r="N24">
-        <v>14.30396922588298</v>
+        <v>16.02904804613099</v>
       </c>
       <c r="O24">
-        <v>60.05591199595037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.777315883252142</v>
+        <v>12.36922972783988</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.35829690845566</v>
+        <v>2.673476812943</v>
       </c>
       <c r="E25">
-        <v>9.629259427415059</v>
+        <v>6.830559738797573</v>
       </c>
       <c r="F25">
-        <v>65.24854025165962</v>
+        <v>38.32899881388057</v>
       </c>
       <c r="G25">
-        <v>1.861639593473631</v>
+        <v>2.136129143460702</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>23.21615595882373</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.153487142778876</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.56975715901216</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.208909294729359</v>
       </c>
       <c r="M25">
-        <v>41.92354707216613</v>
+        <v>11.80251500138699</v>
       </c>
       <c r="N25">
-        <v>14.07734924254463</v>
+        <v>16.36766361431241</v>
       </c>
       <c r="O25">
-        <v>52.41536855108575</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.62837614167475</v>
+        <v>15.44663052312135</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.472245767215526</v>
+        <v>3.744791562036846</v>
       </c>
       <c r="E2">
-        <v>6.569264967328109</v>
+        <v>8.987019149602336</v>
       </c>
       <c r="F2">
-        <v>37.34508891015003</v>
+        <v>51.19620335464731</v>
       </c>
       <c r="G2">
-        <v>2.148812748472125</v>
+        <v>3.775418369640712</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.20532869620644</v>
+        <v>34.51454239726278</v>
       </c>
       <c r="J2">
-        <v>6.078856127546929</v>
+        <v>9.114523741317687</v>
       </c>
       <c r="K2">
-        <v>16.34043544720095</v>
+        <v>18.38102186517671</v>
       </c>
       <c r="L2">
-        <v>8.887478320592228</v>
+        <v>13.47030010850402</v>
       </c>
       <c r="M2">
-        <v>11.40317150964187</v>
+        <v>17.88934705213561</v>
       </c>
       <c r="N2">
-        <v>16.63028463748733</v>
+        <v>24.90889892751992</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11207648172644</v>
+        <v>15.39088126544116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.332075318948429</v>
+        <v>3.71131348687254</v>
       </c>
       <c r="E3">
-        <v>6.38917534640392</v>
+        <v>8.940225338429739</v>
       </c>
       <c r="F3">
-        <v>36.72349253190944</v>
+        <v>51.20049217513596</v>
       </c>
       <c r="G3">
-        <v>2.157690655254885</v>
+        <v>3.778686819251128</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.22410244263216</v>
+        <v>34.57785010585479</v>
       </c>
       <c r="J3">
-        <v>6.028335567044466</v>
+        <v>9.101295316052243</v>
       </c>
       <c r="K3">
-        <v>15.47808090979294</v>
+        <v>18.24433696066139</v>
       </c>
       <c r="L3">
-        <v>8.67523492932917</v>
+        <v>13.46986750733029</v>
       </c>
       <c r="M3">
-        <v>11.13801871207936</v>
+        <v>17.89085616829107</v>
       </c>
       <c r="N3">
-        <v>16.81644779582099</v>
+        <v>24.9643250485044</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78910406863376</v>
+        <v>15.35973310616355</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.244000460709279</v>
+        <v>3.690196349506404</v>
       </c>
       <c r="E4">
-        <v>6.277021022262439</v>
+        <v>8.910704185522027</v>
       </c>
       <c r="F4">
-        <v>36.3638125419161</v>
+        <v>51.21281854018044</v>
       </c>
       <c r="G4">
-        <v>2.16329201203279</v>
+        <v>3.780799692551164</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.24773871725635</v>
+        <v>34.6212957877345</v>
       </c>
       <c r="J4">
-        <v>5.997267209443562</v>
+        <v>9.092956631351747</v>
       </c>
       <c r="K4">
-        <v>14.93547529582761</v>
+        <v>18.16457686973193</v>
       </c>
       <c r="L4">
-        <v>8.54792111143326</v>
+        <v>13.47192399195532</v>
       </c>
       <c r="M4">
-        <v>10.97831163071345</v>
+        <v>17.89466763793109</v>
       </c>
       <c r="N4">
-        <v>16.9347676681276</v>
+        <v>25.00028460243926</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.65617737923413</v>
+        <v>15.34782515982143</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.207588673217526</v>
+        <v>3.681450852321535</v>
       </c>
       <c r="E5">
-        <v>6.230910877284941</v>
+        <v>8.898476294455172</v>
       </c>
       <c r="F5">
-        <v>36.22271762214098</v>
+        <v>51.22027855150262</v>
       </c>
       <c r="G5">
-        <v>2.165613928574874</v>
+        <v>3.781687461577929</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.26030539610541</v>
+        <v>34.64014986692067</v>
       </c>
       <c r="J5">
-        <v>5.984584093463777</v>
+        <v>9.089503971854478</v>
       </c>
       <c r="K5">
-        <v>14.71131109609438</v>
+        <v>18.13315171025139</v>
       </c>
       <c r="L5">
-        <v>8.496834805620731</v>
+        <v>13.47334670706726</v>
       </c>
       <c r="M5">
-        <v>10.91407097342326</v>
+        <v>17.89694771560725</v>
       </c>
       <c r="N5">
-        <v>16.98399143080747</v>
+        <v>25.01542388456189</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.63403166885808</v>
+        <v>15.34589555706213</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.20151072612911</v>
+        <v>3.679990240028092</v>
       </c>
       <c r="E6">
-        <v>6.223229571716129</v>
+        <v>8.896433939013331</v>
       </c>
       <c r="F6">
-        <v>36.19961809595139</v>
+        <v>51.22166442994286</v>
       </c>
       <c r="G6">
-        <v>2.166001898712252</v>
+        <v>3.781836493690254</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.26256617873704</v>
+        <v>34.64334998482413</v>
       </c>
       <c r="J6">
-        <v>5.982476426119606</v>
+        <v>9.088927359061957</v>
       </c>
       <c r="K6">
-        <v>14.673913030654</v>
+        <v>18.12799952764359</v>
       </c>
       <c r="L6">
-        <v>8.488401152013633</v>
+        <v>13.47361827896364</v>
       </c>
       <c r="M6">
-        <v>10.90345650885555</v>
+        <v>17.89737025940982</v>
       </c>
       <c r="N6">
-        <v>16.99222580886507</v>
+        <v>25.01796709403786</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.78731642290737</v>
+        <v>15.35956931951026</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.243511523165421</v>
+        <v>3.690078970423923</v>
       </c>
       <c r="E7">
-        <v>6.276400819929521</v>
+        <v>8.910540075685027</v>
       </c>
       <c r="F7">
-        <v>36.36188758105506</v>
+        <v>51.21290928305001</v>
       </c>
       <c r="G7">
-        <v>2.163323165058978</v>
+        <v>3.780811556857965</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.24789645634106</v>
+        <v>34.62154540672337</v>
       </c>
       <c r="J7">
-        <v>5.997096264684281</v>
+        <v>9.092910288773382</v>
       </c>
       <c r="K7">
-        <v>14.93246411191032</v>
+        <v>18.16414865672486</v>
       </c>
       <c r="L7">
-        <v>8.547228871548839</v>
+        <v>13.47194081101674</v>
       </c>
       <c r="M7">
-        <v>10.97744176944072</v>
+        <v>17.89469544307054</v>
       </c>
       <c r="N7">
-        <v>16.93542743970304</v>
+        <v>25.00048680948982</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.45169734479563</v>
+        <v>15.42677484288486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.424321472799944</v>
+        <v>3.733365501107094</v>
       </c>
       <c r="E8">
-        <v>6.507490869951503</v>
+        <v>8.971048968200765</v>
       </c>
       <c r="F8">
-        <v>37.12617225755276</v>
+        <v>51.19567037040268</v>
       </c>
       <c r="G8">
-        <v>2.151843608544136</v>
+        <v>3.776523380422404</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.2092211566453</v>
+        <v>34.53542106645324</v>
       </c>
       <c r="J8">
-        <v>6.061440238857845</v>
+        <v>9.110007386952148</v>
       </c>
       <c r="K8">
-        <v>16.0459523057538</v>
+        <v>18.33304730244</v>
       </c>
       <c r="L8">
-        <v>8.813696660545551</v>
+        <v>13.46966952224831</v>
       </c>
       <c r="M8">
-        <v>11.31114080768538</v>
+        <v>17.88926958282876</v>
       </c>
       <c r="N8">
-        <v>16.6936387132976</v>
+        <v>24.92761020606874</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.70037674324387</v>
+        <v>15.58253485739039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.763885291938892</v>
+        <v>3.813749947244634</v>
       </c>
       <c r="E9">
-        <v>6.948780162120495</v>
+        <v>9.08341141238833</v>
       </c>
       <c r="F9">
-        <v>38.8013503361679</v>
+        <v>51.23875835299073</v>
       </c>
       <c r="G9">
-        <v>2.130450360859995</v>
+        <v>3.768951339895304</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.23460559942979</v>
+        <v>34.40285787288181</v>
       </c>
       <c r="J9">
-        <v>6.18774851142532</v>
+        <v>9.141826280102947</v>
       </c>
       <c r="K9">
-        <v>18.11700342606538</v>
+        <v>18.69587775238925</v>
       </c>
       <c r="L9">
-        <v>9.358438346059749</v>
+        <v>13.48359851745319</v>
       </c>
       <c r="M9">
-        <v>11.98748843409131</v>
+        <v>17.90144732642597</v>
       </c>
       <c r="N9">
-        <v>16.25151406779071</v>
+        <v>24.79996081446794</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.57738358053184</v>
+        <v>15.71088136021323</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.005896481976726</v>
+        <v>3.870008273022046</v>
       </c>
       <c r="E10">
-        <v>7.267024359641828</v>
+        <v>9.162089970379119</v>
       </c>
       <c r="F10">
-        <v>40.14243662102759</v>
+        <v>51.31721470696336</v>
       </c>
       <c r="G10">
-        <v>2.11530196983195</v>
+        <v>3.763892505459354</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.32237930297614</v>
+        <v>34.32764892224134</v>
       </c>
       <c r="J10">
-        <v>6.281428909661833</v>
+        <v>9.164174925395807</v>
       </c>
       <c r="K10">
-        <v>19.5744611607044</v>
+        <v>18.97970036868769</v>
       </c>
       <c r="L10">
-        <v>9.770264728391538</v>
+        <v>13.50497079501259</v>
       </c>
       <c r="M10">
-        <v>12.49459749716429</v>
+        <v>17.92419496735716</v>
       </c>
       <c r="N10">
-        <v>15.94657011764022</v>
+        <v>24.71543267399244</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.96651051377995</v>
+        <v>15.77212402193122</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.114847956368985</v>
+        <v>3.894982109039008</v>
       </c>
       <c r="E11">
-        <v>7.410897349904022</v>
+        <v>9.197034092249618</v>
       </c>
       <c r="F11">
-        <v>40.77718307898585</v>
+        <v>51.36302938806975</v>
       </c>
       <c r="G11">
-        <v>2.108506579919807</v>
+        <v>3.761699356259109</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.37902944149349</v>
+        <v>34.29825895420102</v>
       </c>
       <c r="J11">
-        <v>6.324442434545265</v>
+        <v>9.174121303697124</v>
       </c>
       <c r="K11">
-        <v>20.32508230474746</v>
+        <v>19.11210524256136</v>
       </c>
       <c r="L11">
-        <v>9.95982916159792</v>
+        <v>13.51709272731907</v>
       </c>
       <c r="M11">
-        <v>12.72694874615784</v>
+        <v>17.93751130772368</v>
       </c>
       <c r="N11">
-        <v>15.81229402047172</v>
+        <v>24.67897850917602</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.11238890562162</v>
+        <v>15.79571080382149</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.155988176365623</v>
+        <v>3.904349108274411</v>
       </c>
       <c r="E12">
-        <v>7.465290168106513</v>
+        <v>9.210143930605494</v>
       </c>
       <c r="F12">
-        <v>41.02116337293475</v>
+        <v>51.38182859728843</v>
       </c>
       <c r="G12">
-        <v>2.105944568827709</v>
+        <v>3.760884321243998</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.40303573817105</v>
+        <v>34.28782371485751</v>
       </c>
       <c r="J12">
-        <v>6.340807073395204</v>
+        <v>9.177856266362197</v>
       </c>
       <c r="K12">
-        <v>20.60468508410983</v>
+        <v>19.16267693525893</v>
       </c>
       <c r="L12">
-        <v>10.03191477025573</v>
+        <v>13.52202591889299</v>
       </c>
       <c r="M12">
-        <v>12.81513631938875</v>
+        <v>17.94297774431601</v>
       </c>
       <c r="N12">
-        <v>15.76210256734219</v>
+        <v>24.66546090587475</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.08103778284377</v>
+        <v>15.79061362859696</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.147132295978563</v>
+        <v>3.902335780135876</v>
       </c>
       <c r="E13">
-        <v>7.45357892250096</v>
+        <v>9.207325966025104</v>
       </c>
       <c r="F13">
-        <v>40.9684557857705</v>
+        <v>51.37771545739636</v>
       </c>
       <c r="G13">
-        <v>2.106495885692646</v>
+        <v>3.761059167282785</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.39774948904121</v>
+        <v>34.29004025181878</v>
       </c>
       <c r="J13">
-        <v>6.337278929932774</v>
+        <v>9.177053274762052</v>
       </c>
       <c r="K13">
-        <v>20.54467173996397</v>
+        <v>19.15176681930039</v>
       </c>
       <c r="L13">
-        <v>10.01637662646753</v>
+        <v>13.52094825559247</v>
       </c>
       <c r="M13">
-        <v>12.79613511255611</v>
+        <v>17.94178165053303</v>
       </c>
       <c r="N13">
-        <v>15.77288270442672</v>
+        <v>24.66835941639043</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.97854187273352</v>
+        <v>15.77405668406579</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.11823464693795</v>
+        <v>3.895754548828633</v>
       </c>
       <c r="E14">
-        <v>7.415373799631282</v>
+        <v>9.198115111754639</v>
       </c>
       <c r="F14">
-        <v>40.79718257518242</v>
+        <v>51.36454698340368</v>
       </c>
       <c r="G14">
-        <v>2.108295591371018</v>
+        <v>3.76163199343539</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.38095238003847</v>
+        <v>34.29738652698077</v>
       </c>
       <c r="J14">
-        <v>6.325787115066074</v>
+        <v>9.174429212136049</v>
       </c>
       <c r="K14">
-        <v>20.34817758674055</v>
+        <v>19.11625736637258</v>
       </c>
       <c r="L14">
-        <v>9.965753715952211</v>
+        <v>13.51749172554207</v>
       </c>
       <c r="M14">
-        <v>12.7342001458186</v>
+        <v>17.93795255888445</v>
       </c>
       <c r="N14">
-        <v>15.80815148036097</v>
+        <v>24.67786066292108</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.91556651189314</v>
+        <v>15.7639661191248</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.100520223253963</v>
+        <v>3.891711594295121</v>
       </c>
       <c r="E15">
-        <v>7.391961830314473</v>
+        <v>9.19245718554353</v>
       </c>
       <c r="F15">
-        <v>40.69274593437618</v>
+        <v>51.35666957990902</v>
       </c>
       <c r="G15">
-        <v>2.109399350354257</v>
+        <v>3.761984877146554</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.37100086419588</v>
+        <v>34.30197674072923</v>
       </c>
       <c r="J15">
-        <v>6.318758597595307</v>
+        <v>9.172817797946456</v>
       </c>
       <c r="K15">
-        <v>20.22721906889819</v>
+        <v>19.09456195288117</v>
       </c>
       <c r="L15">
-        <v>9.934784613384538</v>
+        <v>13.5154190850185</v>
       </c>
       <c r="M15">
-        <v>12.6962884092279</v>
+        <v>17.93566223027133</v>
       </c>
       <c r="N15">
-        <v>15.82984062734702</v>
+        <v>24.68371778495001</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.55174966155694</v>
+        <v>15.70693520490936</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.998757131930416</v>
+        <v>3.86836363383443</v>
       </c>
       <c r="E16">
-        <v>7.257607128289233</v>
+        <v>9.159789164069348</v>
       </c>
       <c r="F16">
-        <v>40.10145636800036</v>
+        <v>51.31442387992114</v>
       </c>
       <c r="G16">
-        <v>2.115747781459764</v>
+        <v>3.764038001485914</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.31902616957542</v>
+        <v>34.32966672666207</v>
       </c>
       <c r="J16">
-        <v>6.278627464516131</v>
+        <v>9.163520488564652</v>
       </c>
       <c r="K16">
-        <v>19.5247491969623</v>
+        <v>18.97111019643027</v>
       </c>
       <c r="L16">
-        <v>9.757919257780902</v>
+        <v>13.50422670360725</v>
       </c>
       <c r="M16">
-        <v>12.47944283345638</v>
+        <v>17.9233841922849</v>
       </c>
       <c r="N16">
-        <v>15.9554361583356</v>
+        <v>24.71785520089637</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.32599173944685</v>
+        <v>15.67266966666542</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.936067742910804</v>
+        <v>3.853881226584127</v>
       </c>
       <c r="E17">
-        <v>7.174981219170401</v>
+        <v>9.139530758494777</v>
       </c>
       <c r="F17">
-        <v>39.74508256710608</v>
+        <v>51.29109695508943</v>
       </c>
       <c r="G17">
-        <v>2.11966513958727</v>
+        <v>3.765325161640906</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.29152812277725</v>
+        <v>34.34788934444882</v>
       </c>
       <c r="J17">
-        <v>6.254123121844531</v>
+        <v>9.1577606094821</v>
       </c>
       <c r="K17">
-        <v>19.14833924645291</v>
+        <v>18.89619116775456</v>
       </c>
       <c r="L17">
-        <v>9.649972126466597</v>
+        <v>13.49797366195706</v>
       </c>
       <c r="M17">
-        <v>12.34681160530041</v>
+        <v>17.91661021808315</v>
       </c>
       <c r="N17">
-        <v>16.03363399885206</v>
+        <v>24.73930878190276</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.19521908046737</v>
+        <v>15.65323092862458</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.899899914609504</v>
+        <v>3.845493192192642</v>
       </c>
       <c r="E18">
-        <v>7.127369608928659</v>
+        <v>9.127798976922286</v>
       </c>
       <c r="F18">
-        <v>39.54242389170187</v>
+        <v>51.27863330743632</v>
       </c>
       <c r="G18">
-        <v>2.121927470606866</v>
+        <v>3.766075685956421</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.27727647420761</v>
+        <v>34.35882444392598</v>
       </c>
       <c r="J18">
-        <v>6.240065044770743</v>
+        <v>9.154426951251125</v>
       </c>
       <c r="K18">
-        <v>18.93297715315959</v>
+        <v>18.85341211739819</v>
       </c>
       <c r="L18">
-        <v>9.588093608035427</v>
+        <v>13.49460308400071</v>
       </c>
       <c r="M18">
-        <v>12.27068410949065</v>
+        <v>17.9129935984142</v>
       </c>
       <c r="N18">
-        <v>16.07902841657668</v>
+        <v>24.75183641628313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.15078547225418</v>
+        <v>15.64669611748618</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.887633808773887</v>
+        <v>3.842643197749148</v>
       </c>
       <c r="E19">
-        <v>7.111233023937491</v>
+        <v>9.12381313989839</v>
       </c>
       <c r="F19">
-        <v>39.4742035291857</v>
+        <v>51.27457722907967</v>
       </c>
       <c r="G19">
-        <v>2.12269510443404</v>
+        <v>3.766331552348738</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.27271538464189</v>
+        <v>34.36260482508951</v>
       </c>
       <c r="J19">
-        <v>6.23531088768673</v>
+        <v>9.153294667484074</v>
       </c>
       <c r="K19">
-        <v>18.85977911391093</v>
+        <v>18.83898274596534</v>
       </c>
       <c r="L19">
-        <v>9.567179315041857</v>
+        <v>13.49350074309081</v>
       </c>
       <c r="M19">
-        <v>12.24493717082678</v>
+        <v>17.9118171803546</v>
       </c>
       <c r="N19">
-        <v>16.09446937435278</v>
+        <v>24.75611038110421</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.35012006547061</v>
+        <v>15.6762894679924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.942752260087795</v>
+        <v>3.855428928721789</v>
       </c>
       <c r="E20">
-        <v>7.18378566310592</v>
+        <v>9.141695553816813</v>
       </c>
       <c r="F20">
-        <v>39.78277882397004</v>
+        <v>51.29348151242426</v>
       </c>
       <c r="G20">
-        <v>2.119247198416421</v>
+        <v>3.765187087894045</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.29429235843891</v>
+        <v>34.34590253122779</v>
       </c>
       <c r="J20">
-        <v>6.256727775834792</v>
+        <v>9.158375902682874</v>
       </c>
       <c r="K20">
-        <v>19.18806455323873</v>
+        <v>18.90413438690345</v>
       </c>
       <c r="L20">
-        <v>9.661441722737631</v>
+        <v>13.49861593313672</v>
       </c>
       <c r="M20">
-        <v>12.36091432840234</v>
+        <v>17.91730240357719</v>
       </c>
       <c r="N20">
-        <v>16.02526642917933</v>
+        <v>24.7370055477173</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.00868784648262</v>
+        <v>15.77890925122785</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.126725365507465</v>
+        <v>3.897690068818967</v>
       </c>
       <c r="E21">
-        <v>7.426597618731632</v>
+        <v>9.200823901464107</v>
       </c>
       <c r="F21">
-        <v>40.84739091979404</v>
+        <v>51.3683755772205</v>
       </c>
       <c r="G21">
-        <v>2.107766689900019</v>
+        <v>3.761463321541375</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.38581554782512</v>
+        <v>34.29520990603437</v>
       </c>
       <c r="J21">
-        <v>6.329160303337565</v>
+        <v>9.175200817141958</v>
       </c>
       <c r="K21">
-        <v>20.40601749749292</v>
+        <v>19.12667593324296</v>
       </c>
       <c r="L21">
-        <v>9.980614807328255</v>
+        <v>13.51849770519748</v>
       </c>
       <c r="M21">
-        <v>12.7523867468393</v>
+        <v>17.93906577878038</v>
       </c>
       <c r="N21">
-        <v>15.79777422663013</v>
+        <v>24.6750621370026</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.43048480645311</v>
+        <v>15.84827503419286</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.246305166770301</v>
+        <v>3.924784779313053</v>
       </c>
       <c r="E22">
-        <v>7.584796421278087</v>
+        <v>9.238751833229527</v>
       </c>
       <c r="F22">
-        <v>41.56429626264349</v>
+        <v>51.42577247297741</v>
       </c>
       <c r="G22">
-        <v>2.100327774130196</v>
+        <v>3.759119714922838</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.46059398855814</v>
+        <v>34.26612531163347</v>
       </c>
       <c r="J22">
-        <v>6.376954809222974</v>
+        <v>9.186013241434047</v>
       </c>
       <c r="K22">
-        <v>21.21136529930988</v>
+        <v>19.27462337684365</v>
       </c>
       <c r="L22">
-        <v>10.19096891699465</v>
+        <v>13.53348896195412</v>
       </c>
       <c r="M22">
-        <v>13.00939814278039</v>
+        <v>17.95575819694798</v>
       </c>
       <c r="N22">
-        <v>15.65292959976395</v>
+        <v>24.63624998284153</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.20616744302233</v>
+        <v>15.81104818625914</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.182526079611729</v>
+        <v>3.910372261789951</v>
       </c>
       <c r="E23">
-        <v>7.500392419755094</v>
+        <v>9.218574787804403</v>
       </c>
       <c r="F23">
-        <v>41.17971080374175</v>
+        <v>51.39436775098124</v>
       </c>
       <c r="G23">
-        <v>2.104293077135656</v>
+        <v>3.76036232738636</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.41926266040162</v>
+        <v>34.28127793683309</v>
       </c>
       <c r="J23">
-        <v>6.351397336634814</v>
+        <v>9.180259203637101</v>
       </c>
       <c r="K23">
-        <v>20.78395621262811</v>
+        <v>19.19544553106051</v>
       </c>
       <c r="L23">
-        <v>10.07854206075892</v>
+        <v>13.5253058723646</v>
       </c>
       <c r="M23">
-        <v>12.872130311386</v>
+        <v>17.94662431284205</v>
       </c>
       <c r="N23">
-        <v>15.7298782956162</v>
+        <v>24.65681199208718</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.33921470122387</v>
+        <v>15.67465214174906</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.939730588465095</v>
+        <v>3.854729405349505</v>
       </c>
       <c r="E24">
-        <v>7.179805516068677</v>
+        <v>9.140717114429464</v>
       </c>
       <c r="F24">
-        <v>39.76572941948011</v>
+        <v>51.29240050282598</v>
       </c>
       <c r="G24">
-        <v>2.119436117694916</v>
+        <v>3.765249478263039</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.29303780793841</v>
+        <v>34.34679934078505</v>
       </c>
       <c r="J24">
-        <v>6.255550120373976</v>
+        <v>9.158097797881046</v>
       </c>
       <c r="K24">
-        <v>19.17011014378509</v>
+        <v>18.90054234210225</v>
       </c>
       <c r="L24">
-        <v>9.656255750760456</v>
+        <v>13.49832486325812</v>
       </c>
       <c r="M24">
-        <v>12.35453809815374</v>
+        <v>17.91698860088783</v>
       </c>
       <c r="N24">
-        <v>16.02904804613099</v>
+        <v>24.73804623651983</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36922972783988</v>
+        <v>15.5379009064711</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.673476812943</v>
+        <v>3.792491516486225</v>
       </c>
       <c r="E25">
-        <v>6.830559738797573</v>
+        <v>9.053692076551567</v>
       </c>
       <c r="F25">
-        <v>38.32899881388057</v>
+        <v>51.21887331578433</v>
       </c>
       <c r="G25">
-        <v>2.136129143460702</v>
+        <v>3.770910781560374</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.21615595882373</v>
+        <v>34.43482633466157</v>
       </c>
       <c r="J25">
-        <v>6.153487142778876</v>
+        <v>9.133399992370892</v>
       </c>
       <c r="K25">
-        <v>17.56975715901216</v>
+        <v>18.59454064151442</v>
       </c>
       <c r="L25">
-        <v>9.208909294729359</v>
+        <v>13.47786836184341</v>
       </c>
       <c r="M25">
-        <v>11.80251500138699</v>
+        <v>17.8957203475713</v>
       </c>
       <c r="N25">
-        <v>16.36766361431241</v>
+        <v>24.83286453946465</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.44663052312135</v>
+        <v>11.62837614167482</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.744791562036846</v>
+        <v>2.472245767215638</v>
       </c>
       <c r="E2">
-        <v>8.987019149602336</v>
+        <v>6.569264967328167</v>
       </c>
       <c r="F2">
-        <v>51.19620335464731</v>
+        <v>37.34508891015004</v>
       </c>
       <c r="G2">
-        <v>3.775418369640712</v>
+        <v>2.148812748472255</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.51454239726278</v>
+        <v>23.20532869620651</v>
       </c>
       <c r="J2">
-        <v>9.114523741317687</v>
+        <v>6.078856127546927</v>
       </c>
       <c r="K2">
-        <v>18.38102186517671</v>
+        <v>16.34043544720095</v>
       </c>
       <c r="L2">
-        <v>13.47030010850402</v>
+        <v>8.887478320592173</v>
       </c>
       <c r="M2">
-        <v>17.88934705213561</v>
+        <v>11.40317150964188</v>
       </c>
       <c r="N2">
-        <v>24.90889892751992</v>
+        <v>16.63028463748733</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.39088126544116</v>
+        <v>11.11207648172642</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.71131348687254</v>
+        <v>2.332075318948434</v>
       </c>
       <c r="E3">
-        <v>8.940225338429739</v>
+        <v>6.389175346403919</v>
       </c>
       <c r="F3">
-        <v>51.20049217513596</v>
+        <v>36.72349253190942</v>
       </c>
       <c r="G3">
-        <v>3.778686819251128</v>
+        <v>2.157690655254354</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.57785010585479</v>
+        <v>23.22410244263212</v>
       </c>
       <c r="J3">
-        <v>9.101295316052243</v>
+        <v>6.028335567044498</v>
       </c>
       <c r="K3">
-        <v>18.24433696066139</v>
+        <v>15.47808090979294</v>
       </c>
       <c r="L3">
-        <v>13.46986750733029</v>
+        <v>8.675234929329168</v>
       </c>
       <c r="M3">
-        <v>17.89085616829107</v>
+        <v>11.13801871207937</v>
       </c>
       <c r="N3">
-        <v>24.9643250485044</v>
+        <v>16.81644779582096</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35973310616355</v>
+        <v>10.78910406863364</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.690196349506404</v>
+        <v>2.244000460709331</v>
       </c>
       <c r="E4">
-        <v>8.910704185522027</v>
+        <v>6.277021022262439</v>
       </c>
       <c r="F4">
-        <v>51.21281854018044</v>
+        <v>36.36381254191605</v>
       </c>
       <c r="G4">
-        <v>3.780799692551164</v>
+        <v>2.163292012033054</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.6212957877345</v>
+        <v>23.24773871725628</v>
       </c>
       <c r="J4">
-        <v>9.092956631351747</v>
+        <v>5.997267209443562</v>
       </c>
       <c r="K4">
-        <v>18.16457686973193</v>
+        <v>14.9354752958276</v>
       </c>
       <c r="L4">
-        <v>13.47192399195532</v>
+        <v>8.54792111143327</v>
       </c>
       <c r="M4">
-        <v>17.89466763793109</v>
+        <v>10.97831163071341</v>
       </c>
       <c r="N4">
-        <v>25.00028460243926</v>
+        <v>16.93476766812761</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.34782515982143</v>
+        <v>10.65617737923418</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.681450852321535</v>
+        <v>2.207588673217465</v>
       </c>
       <c r="E5">
-        <v>8.898476294455172</v>
+        <v>6.230910877284873</v>
       </c>
       <c r="F5">
-        <v>51.22027855150262</v>
+        <v>36.22271762214108</v>
       </c>
       <c r="G5">
-        <v>3.781687461577929</v>
+        <v>2.165613928574605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.64014986692067</v>
+        <v>23.26030539610554</v>
       </c>
       <c r="J5">
-        <v>9.089503971854478</v>
+        <v>5.984584093463774</v>
       </c>
       <c r="K5">
-        <v>18.13315171025139</v>
+        <v>14.71131109609441</v>
       </c>
       <c r="L5">
-        <v>13.47334670706726</v>
+        <v>8.496834805620724</v>
       </c>
       <c r="M5">
-        <v>17.89694771560725</v>
+        <v>10.91407097342328</v>
       </c>
       <c r="N5">
-        <v>25.01542388456189</v>
+        <v>16.98399143080751</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.34589555706213</v>
+        <v>10.63403166885817</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.679990240028092</v>
+        <v>2.201510726129031</v>
       </c>
       <c r="E6">
-        <v>8.896433939013331</v>
+        <v>6.223229571716385</v>
       </c>
       <c r="F6">
-        <v>51.22166442994286</v>
+        <v>36.19961809595146</v>
       </c>
       <c r="G6">
-        <v>3.781836493690254</v>
+        <v>2.166001898712253</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.64334998482413</v>
+        <v>23.26256617873718</v>
       </c>
       <c r="J6">
-        <v>9.088927359061957</v>
+        <v>5.982476426119841</v>
       </c>
       <c r="K6">
-        <v>18.12799952764359</v>
+        <v>14.67391303065402</v>
       </c>
       <c r="L6">
-        <v>13.47361827896364</v>
+        <v>8.488401152013738</v>
       </c>
       <c r="M6">
-        <v>17.89737025940982</v>
+        <v>10.90345650885568</v>
       </c>
       <c r="N6">
-        <v>25.01796709403786</v>
+        <v>16.99222580886509</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35956931951026</v>
+        <v>10.7873164229073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.690078970423923</v>
+        <v>2.243511523165311</v>
       </c>
       <c r="E7">
-        <v>8.910540075685027</v>
+        <v>6.276400819929588</v>
       </c>
       <c r="F7">
-        <v>51.21290928305001</v>
+        <v>36.36188758105477</v>
       </c>
       <c r="G7">
-        <v>3.780811556857965</v>
+        <v>2.163323165058578</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.62154540672337</v>
+        <v>23.24789645634088</v>
       </c>
       <c r="J7">
-        <v>9.092910288773382</v>
+        <v>5.997096264684348</v>
       </c>
       <c r="K7">
-        <v>18.16414865672486</v>
+        <v>14.93246411191029</v>
       </c>
       <c r="L7">
-        <v>13.47194081101674</v>
+        <v>8.547228871548837</v>
       </c>
       <c r="M7">
-        <v>17.89469544307054</v>
+        <v>10.97744176944067</v>
       </c>
       <c r="N7">
-        <v>25.00048680948982</v>
+        <v>16.93542743970292</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.42677484288486</v>
+        <v>11.45169734479559</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.733365501107094</v>
+        <v>2.424321472800183</v>
       </c>
       <c r="E8">
-        <v>8.971048968200765</v>
+        <v>6.507490869951507</v>
       </c>
       <c r="F8">
-        <v>51.19567037040268</v>
+        <v>37.12617225755258</v>
       </c>
       <c r="G8">
-        <v>3.776523380422404</v>
+        <v>2.151843608543739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.53542106645324</v>
+        <v>23.2092211566451</v>
       </c>
       <c r="J8">
-        <v>9.110007386952148</v>
+        <v>6.061440238857745</v>
       </c>
       <c r="K8">
-        <v>18.33304730244</v>
+        <v>16.04595230575379</v>
       </c>
       <c r="L8">
-        <v>13.46966952224831</v>
+        <v>8.813696660545514</v>
       </c>
       <c r="M8">
-        <v>17.88926958282876</v>
+        <v>11.31114080768532</v>
       </c>
       <c r="N8">
-        <v>24.92761020606874</v>
+        <v>16.69363871329747</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.58253485739039</v>
+        <v>12.70037674324387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.813749947244634</v>
+        <v>2.763885291938892</v>
       </c>
       <c r="E9">
-        <v>9.08341141238833</v>
+        <v>6.94878016212049</v>
       </c>
       <c r="F9">
-        <v>51.23875835299073</v>
+        <v>38.80135033616789</v>
       </c>
       <c r="G9">
-        <v>3.768951339895304</v>
+        <v>2.13045036085973</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.40285787288181</v>
+        <v>23.23460559942979</v>
       </c>
       <c r="J9">
-        <v>9.141826280102947</v>
+        <v>6.187748511425316</v>
       </c>
       <c r="K9">
-        <v>18.69587775238925</v>
+        <v>18.11700342606538</v>
       </c>
       <c r="L9">
-        <v>13.48359851745319</v>
+        <v>9.358438346059748</v>
       </c>
       <c r="M9">
-        <v>17.90144732642597</v>
+        <v>11.98748843409131</v>
       </c>
       <c r="N9">
-        <v>24.79996081446794</v>
+        <v>16.25151406779071</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.71088136021323</v>
+        <v>13.57738358053184</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.870008273022046</v>
+        <v>3.005896481976718</v>
       </c>
       <c r="E10">
-        <v>9.162089970379119</v>
+        <v>7.267024359641954</v>
       </c>
       <c r="F10">
-        <v>51.31721470696336</v>
+        <v>40.1424366210275</v>
       </c>
       <c r="G10">
-        <v>3.763892505459354</v>
+        <v>2.115301969831819</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.32764892224134</v>
+        <v>23.32237930297608</v>
       </c>
       <c r="J10">
-        <v>9.164174925395807</v>
+        <v>6.281428909661966</v>
       </c>
       <c r="K10">
-        <v>18.97970036868769</v>
+        <v>19.57446116070447</v>
       </c>
       <c r="L10">
-        <v>13.50497079501259</v>
+        <v>9.770264728391545</v>
       </c>
       <c r="M10">
-        <v>17.92419496735716</v>
+        <v>12.49459749716428</v>
       </c>
       <c r="N10">
-        <v>24.71543267399244</v>
+        <v>15.94657011764013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.77212402193122</v>
+        <v>13.96651051377993</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.894982109039008</v>
+        <v>3.114847956368827</v>
       </c>
       <c r="E11">
-        <v>9.197034092249618</v>
+        <v>7.410897349903904</v>
       </c>
       <c r="F11">
-        <v>51.36302938806975</v>
+        <v>40.77718307898559</v>
       </c>
       <c r="G11">
-        <v>3.761699356259109</v>
+        <v>2.108506579919536</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.29825895420102</v>
+        <v>23.37902944149329</v>
       </c>
       <c r="J11">
-        <v>9.174121303697124</v>
+        <v>6.324442434545199</v>
       </c>
       <c r="K11">
-        <v>19.11210524256136</v>
+        <v>20.32508230474753</v>
       </c>
       <c r="L11">
-        <v>13.51709272731907</v>
+        <v>9.95982916159787</v>
       </c>
       <c r="M11">
-        <v>17.93751130772368</v>
+        <v>12.72694874615776</v>
       </c>
       <c r="N11">
-        <v>24.67897850917602</v>
+        <v>15.81229402047157</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.79571080382149</v>
+        <v>14.1123889056216</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.904349108274411</v>
+        <v>3.155988176365498</v>
       </c>
       <c r="E12">
-        <v>9.210143930605494</v>
+        <v>7.46529016810663</v>
       </c>
       <c r="F12">
-        <v>51.38182859728843</v>
+        <v>41.02116337293464</v>
       </c>
       <c r="G12">
-        <v>3.760884321243998</v>
+        <v>2.105944568827712</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.28782371485751</v>
+        <v>23.40303573817098</v>
       </c>
       <c r="J12">
-        <v>9.177856266362197</v>
+        <v>6.340807073395403</v>
       </c>
       <c r="K12">
-        <v>19.16267693525893</v>
+        <v>20.6046850841099</v>
       </c>
       <c r="L12">
-        <v>13.52202591889299</v>
+        <v>10.03191477025571</v>
       </c>
       <c r="M12">
-        <v>17.94297774431601</v>
+        <v>12.81513631938875</v>
       </c>
       <c r="N12">
-        <v>24.66546090587475</v>
+        <v>15.76210256734214</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.79061362859696</v>
+        <v>14.08103778284379</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.902335780135876</v>
+        <v>3.147132295978551</v>
       </c>
       <c r="E13">
-        <v>9.207325966025104</v>
+        <v>7.453578922500959</v>
       </c>
       <c r="F13">
-        <v>51.37771545739636</v>
+        <v>40.96845578577043</v>
       </c>
       <c r="G13">
-        <v>3.761059167282785</v>
+        <v>2.106495885692376</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.29004025181878</v>
+        <v>23.39774948904121</v>
       </c>
       <c r="J13">
-        <v>9.177053274762052</v>
+        <v>6.337278929932771</v>
       </c>
       <c r="K13">
-        <v>19.15176681930039</v>
+        <v>20.544671739964</v>
       </c>
       <c r="L13">
-        <v>13.52094825559247</v>
+        <v>10.01637662646748</v>
       </c>
       <c r="M13">
-        <v>17.94178165053303</v>
+        <v>12.79613511255608</v>
       </c>
       <c r="N13">
-        <v>24.66835941639043</v>
+        <v>15.77288270442669</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.77405668406579</v>
+        <v>13.97854187273354</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.895754548828633</v>
+        <v>3.118234646937941</v>
       </c>
       <c r="E14">
-        <v>9.198115111754639</v>
+        <v>7.415373799631225</v>
       </c>
       <c r="F14">
-        <v>51.36454698340368</v>
+        <v>40.79718257518243</v>
       </c>
       <c r="G14">
-        <v>3.76163199343539</v>
+        <v>2.108295591371018</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.29738652698077</v>
+        <v>23.38095238003847</v>
       </c>
       <c r="J14">
-        <v>9.174429212136049</v>
+        <v>6.325787115066007</v>
       </c>
       <c r="K14">
-        <v>19.11625736637258</v>
+        <v>20.34817758674054</v>
       </c>
       <c r="L14">
-        <v>13.51749172554207</v>
+        <v>9.965753715952195</v>
       </c>
       <c r="M14">
-        <v>17.93795255888445</v>
+        <v>12.7342001458186</v>
       </c>
       <c r="N14">
-        <v>24.67786066292108</v>
+        <v>15.80815148036097</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.7639661191248</v>
+        <v>13.91556651189317</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.891711594295121</v>
+        <v>3.100520223253954</v>
       </c>
       <c r="E15">
-        <v>9.19245718554353</v>
+        <v>7.39196183031447</v>
       </c>
       <c r="F15">
-        <v>51.35666957990902</v>
+        <v>40.6927459343762</v>
       </c>
       <c r="G15">
-        <v>3.761984877146554</v>
+        <v>2.109399350354261</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.30197674072923</v>
+        <v>23.37100086419595</v>
       </c>
       <c r="J15">
-        <v>9.172817797946456</v>
+        <v>6.318758597595371</v>
       </c>
       <c r="K15">
-        <v>19.09456195288117</v>
+        <v>20.22721906889816</v>
       </c>
       <c r="L15">
-        <v>13.5154190850185</v>
+        <v>9.934784613384528</v>
       </c>
       <c r="M15">
-        <v>17.93566223027133</v>
+        <v>12.69628840922792</v>
       </c>
       <c r="N15">
-        <v>24.68371778495001</v>
+        <v>15.82984062734703</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.70693520490936</v>
+        <v>13.55174966155693</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.86836363383443</v>
+        <v>2.998757131930421</v>
       </c>
       <c r="E16">
-        <v>9.159789164069348</v>
+        <v>7.25760712828924</v>
       </c>
       <c r="F16">
-        <v>51.31442387992114</v>
+        <v>40.10145636800039</v>
       </c>
       <c r="G16">
-        <v>3.764038001485914</v>
+        <v>2.115747781459894</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.32966672666207</v>
+        <v>23.31902616957546</v>
       </c>
       <c r="J16">
-        <v>9.163520488564652</v>
+        <v>6.278627464516131</v>
       </c>
       <c r="K16">
-        <v>18.97111019643027</v>
+        <v>19.52474919696229</v>
       </c>
       <c r="L16">
-        <v>13.50422670360725</v>
+        <v>9.75791925778087</v>
       </c>
       <c r="M16">
-        <v>17.9233841922849</v>
+        <v>12.47944283345637</v>
       </c>
       <c r="N16">
-        <v>24.71785520089637</v>
+        <v>15.95543615833561</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67266966666542</v>
+        <v>13.32599173944686</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.853881226584127</v>
+        <v>2.936067742910809</v>
       </c>
       <c r="E17">
-        <v>9.139530758494777</v>
+        <v>7.174981219170339</v>
       </c>
       <c r="F17">
-        <v>51.29109695508943</v>
+        <v>39.74508256710615</v>
       </c>
       <c r="G17">
-        <v>3.765325161640906</v>
+        <v>2.119665139587007</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.34788934444882</v>
+        <v>23.29152812277729</v>
       </c>
       <c r="J17">
-        <v>9.1577606094821</v>
+        <v>6.254123121844462</v>
       </c>
       <c r="K17">
-        <v>18.89619116775456</v>
+        <v>19.1483392464529</v>
       </c>
       <c r="L17">
-        <v>13.49797366195706</v>
+        <v>9.649972126466579</v>
       </c>
       <c r="M17">
-        <v>17.91661021808315</v>
+        <v>12.34681160530039</v>
       </c>
       <c r="N17">
-        <v>24.73930878190276</v>
+        <v>16.03363399885211</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.65323092862458</v>
+        <v>13.19521908046742</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.845493192192642</v>
+        <v>2.899899914609342</v>
       </c>
       <c r="E18">
-        <v>9.127798976922286</v>
+        <v>7.127369608928529</v>
       </c>
       <c r="F18">
-        <v>51.27863330743632</v>
+        <v>39.54242389170192</v>
       </c>
       <c r="G18">
-        <v>3.766075685956421</v>
+        <v>2.121927470607133</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.35882444392598</v>
+        <v>23.27727647420767</v>
       </c>
       <c r="J18">
-        <v>9.154426951251125</v>
+        <v>6.240065044770674</v>
       </c>
       <c r="K18">
-        <v>18.85341211739819</v>
+        <v>18.93297715315959</v>
       </c>
       <c r="L18">
-        <v>13.49460308400071</v>
+        <v>9.588093608035384</v>
       </c>
       <c r="M18">
-        <v>17.9129935984142</v>
+        <v>12.27068410949066</v>
       </c>
       <c r="N18">
-        <v>24.75183641628313</v>
+        <v>16.07902841657666</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.64669611748618</v>
+        <v>13.15078547225416</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.842643197749148</v>
+        <v>2.887633808773887</v>
       </c>
       <c r="E19">
-        <v>9.12381313989839</v>
+        <v>7.111233023937547</v>
       </c>
       <c r="F19">
-        <v>51.27457722907967</v>
+        <v>39.4742035291857</v>
       </c>
       <c r="G19">
-        <v>3.766331552348738</v>
+        <v>2.122695104434174</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.36260482508951</v>
+        <v>23.27271538464186</v>
       </c>
       <c r="J19">
-        <v>9.153294667484074</v>
+        <v>6.235310887686761</v>
       </c>
       <c r="K19">
-        <v>18.83898274596534</v>
+        <v>18.85977911391091</v>
       </c>
       <c r="L19">
-        <v>13.49350074309081</v>
+        <v>9.567179315041884</v>
       </c>
       <c r="M19">
-        <v>17.9118171803546</v>
+        <v>12.2449371708268</v>
       </c>
       <c r="N19">
-        <v>24.75611038110421</v>
+        <v>16.09446937435279</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.6762894679924</v>
+        <v>13.35012006547058</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.855428928721789</v>
+        <v>2.942752260087902</v>
       </c>
       <c r="E20">
-        <v>9.141695553816813</v>
+        <v>7.183785663105921</v>
       </c>
       <c r="F20">
-        <v>51.29348151242426</v>
+        <v>39.78277882397015</v>
       </c>
       <c r="G20">
-        <v>3.765187087894045</v>
+        <v>2.119247198416422</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.34590253122779</v>
+        <v>23.29429235843895</v>
       </c>
       <c r="J20">
-        <v>9.158375902682874</v>
+        <v>6.256727775834758</v>
       </c>
       <c r="K20">
-        <v>18.90413438690345</v>
+        <v>19.18806455323871</v>
       </c>
       <c r="L20">
-        <v>13.49861593313672</v>
+        <v>9.661441722737637</v>
       </c>
       <c r="M20">
-        <v>17.91730240357719</v>
+        <v>12.36091432840234</v>
       </c>
       <c r="N20">
-        <v>24.7370055477173</v>
+        <v>16.02526642917939</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77890925122785</v>
+        <v>14.00868784648266</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.897690068818967</v>
+        <v>3.126725365507251</v>
       </c>
       <c r="E21">
-        <v>9.200823901464107</v>
+        <v>7.426597618731447</v>
       </c>
       <c r="F21">
-        <v>51.3683755772205</v>
+        <v>40.84739091979413</v>
       </c>
       <c r="G21">
-        <v>3.761463321541375</v>
+        <v>2.107766689899885</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.29520990603437</v>
+        <v>23.38581554782526</v>
       </c>
       <c r="J21">
-        <v>9.175200817141958</v>
+        <v>6.329160303337559</v>
       </c>
       <c r="K21">
-        <v>19.12667593324296</v>
+        <v>20.40601749749287</v>
       </c>
       <c r="L21">
-        <v>13.51849770519748</v>
+        <v>9.980614807328216</v>
       </c>
       <c r="M21">
-        <v>17.93906577878038</v>
+        <v>12.7523867468393</v>
       </c>
       <c r="N21">
-        <v>24.6750621370026</v>
+        <v>15.79777422663019</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.84827503419286</v>
+        <v>14.43048480645309</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.924784779313053</v>
+        <v>3.246305166770305</v>
       </c>
       <c r="E22">
-        <v>9.238751833229527</v>
+        <v>7.584796421278027</v>
       </c>
       <c r="F22">
-        <v>51.42577247297741</v>
+        <v>41.56429626264352</v>
       </c>
       <c r="G22">
-        <v>3.759119714922838</v>
+        <v>2.100327774130061</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.26612531163347</v>
+        <v>23.46059398855812</v>
       </c>
       <c r="J22">
-        <v>9.186013241434047</v>
+        <v>6.37695480922291</v>
       </c>
       <c r="K22">
-        <v>19.27462337684365</v>
+        <v>21.21136529930986</v>
       </c>
       <c r="L22">
-        <v>13.53348896195412</v>
+        <v>10.19096891699466</v>
       </c>
       <c r="M22">
-        <v>17.95575819694798</v>
+        <v>13.00939814278038</v>
       </c>
       <c r="N22">
-        <v>24.63624998284153</v>
+        <v>15.65292959976393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.81104818625914</v>
+        <v>14.20616744302234</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.910372261789951</v>
+        <v>3.182526079611784</v>
       </c>
       <c r="E23">
-        <v>9.218574787804403</v>
+        <v>7.500392419755149</v>
       </c>
       <c r="F23">
-        <v>51.39436775098124</v>
+        <v>41.17971080374176</v>
       </c>
       <c r="G23">
-        <v>3.76036232738636</v>
+        <v>2.104293077135654</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.28127793683309</v>
+        <v>23.41926266040166</v>
       </c>
       <c r="J23">
-        <v>9.180259203637101</v>
+        <v>6.351397336634844</v>
       </c>
       <c r="K23">
-        <v>19.19544553106051</v>
+        <v>20.78395621262813</v>
       </c>
       <c r="L23">
-        <v>13.5253058723646</v>
+        <v>10.0785420607589</v>
       </c>
       <c r="M23">
-        <v>17.94662431284205</v>
+        <v>12.872130311386</v>
       </c>
       <c r="N23">
-        <v>24.65681199208718</v>
+        <v>15.72987829561626</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.67465214174906</v>
+        <v>13.33921470122389</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.854729405349505</v>
+        <v>2.939730588465207</v>
       </c>
       <c r="E24">
-        <v>9.140717114429464</v>
+        <v>7.179805516068799</v>
       </c>
       <c r="F24">
-        <v>51.29240050282598</v>
+        <v>39.76572941948005</v>
       </c>
       <c r="G24">
-        <v>3.765249478263039</v>
+        <v>2.119436117695181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.34679934078505</v>
+        <v>23.29303780793843</v>
       </c>
       <c r="J24">
-        <v>9.158097797881046</v>
+        <v>6.255550120374012</v>
       </c>
       <c r="K24">
-        <v>18.90054234210225</v>
+        <v>19.17011014378508</v>
       </c>
       <c r="L24">
-        <v>13.49832486325812</v>
+        <v>9.656255750760408</v>
       </c>
       <c r="M24">
-        <v>17.91698860088783</v>
+        <v>12.35453809815373</v>
       </c>
       <c r="N24">
-        <v>24.73804623651983</v>
+        <v>16.02904804613096</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.5379009064711</v>
+        <v>12.36922972783988</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.792491516486225</v>
+        <v>2.673476812943172</v>
       </c>
       <c r="E25">
-        <v>9.053692076551567</v>
+        <v>6.830559738797502</v>
       </c>
       <c r="F25">
-        <v>51.21887331578433</v>
+        <v>38.3289988138805</v>
       </c>
       <c r="G25">
-        <v>3.770910781560374</v>
+        <v>2.136129143460833</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.43482633466157</v>
+        <v>23.21615595882365</v>
       </c>
       <c r="J25">
-        <v>9.133399992370892</v>
+        <v>6.153487142778807</v>
       </c>
       <c r="K25">
-        <v>18.59454064151442</v>
+        <v>17.56975715901214</v>
       </c>
       <c r="L25">
-        <v>13.47786836184341</v>
+        <v>9.208909294729333</v>
       </c>
       <c r="M25">
-        <v>17.8957203475713</v>
+        <v>11.80251500138695</v>
       </c>
       <c r="N25">
-        <v>24.83286453946465</v>
+        <v>16.36766361431233</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.62837614167482</v>
+        <v>8.851338857064208</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.472245767215638</v>
+        <v>2.679643258197878</v>
       </c>
       <c r="E2">
-        <v>6.569264967328167</v>
+        <v>14.16288457944852</v>
       </c>
       <c r="F2">
-        <v>37.34508891015004</v>
+        <v>20.916280712817</v>
       </c>
       <c r="G2">
-        <v>2.148812748472255</v>
+        <v>29.35521475839967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.05684097057017</v>
       </c>
       <c r="I2">
-        <v>23.20532869620651</v>
+        <v>3.442230212124864</v>
       </c>
       <c r="J2">
-        <v>6.078856127546927</v>
+        <v>8.490120844673719</v>
       </c>
       <c r="K2">
-        <v>16.34043544720095</v>
+        <v>14.97706126450755</v>
       </c>
       <c r="L2">
-        <v>8.887478320592173</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.40317150964188</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.63028463748733</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>22.47265852938737</v>
+      </c>
+      <c r="P2">
+        <v>15.36383182585724</v>
+      </c>
+      <c r="Q2">
+        <v>15.67370838443229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11207648172642</v>
+        <v>8.327974288946201</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.332075318948434</v>
+        <v>2.562007757578561</v>
       </c>
       <c r="E3">
-        <v>6.389175346403919</v>
+        <v>13.88099827282215</v>
       </c>
       <c r="F3">
-        <v>36.72349253190942</v>
+        <v>19.68190420351318</v>
       </c>
       <c r="G3">
-        <v>2.157690655254354</v>
+        <v>27.41844910941241</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.836803871822098</v>
       </c>
       <c r="I3">
-        <v>23.22410244263212</v>
+        <v>3.501910640882187</v>
       </c>
       <c r="J3">
-        <v>6.028335567044498</v>
+        <v>8.192290940054564</v>
       </c>
       <c r="K3">
-        <v>15.47808090979294</v>
+        <v>14.89927413412306</v>
       </c>
       <c r="L3">
-        <v>8.675234929329168</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.13801871207937</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.81644779582096</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>21.03917618395387</v>
+      </c>
+      <c r="P3">
+        <v>15.06411115271019</v>
+      </c>
+      <c r="Q3">
+        <v>14.8524484082723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78910406863364</v>
+        <v>7.983968771954478</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.244000460709331</v>
+        <v>2.486492503509579</v>
       </c>
       <c r="E4">
-        <v>6.277021022262439</v>
+        <v>13.70226024619728</v>
       </c>
       <c r="F4">
-        <v>36.36381254191605</v>
+        <v>18.89425321292673</v>
       </c>
       <c r="G4">
-        <v>2.163292012033054</v>
+        <v>26.17180538880587</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.69716227647163</v>
       </c>
       <c r="I4">
-        <v>23.24773871725628</v>
+        <v>3.540502742676845</v>
       </c>
       <c r="J4">
-        <v>5.997267209443562</v>
+        <v>8.008122050841905</v>
       </c>
       <c r="K4">
-        <v>14.9354752958276</v>
+        <v>14.85979001448005</v>
       </c>
       <c r="L4">
-        <v>8.54792111143327</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.97831163071341</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.93476766812761</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>20.10996503262804</v>
+      </c>
+      <c r="P4">
+        <v>14.88132443071451</v>
+      </c>
+      <c r="Q4">
+        <v>14.33276522380004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.65617737923418</v>
+        <v>7.825999626328817</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.207588673217465</v>
+        <v>2.455061952519914</v>
       </c>
       <c r="E5">
-        <v>6.230910877284873</v>
+        <v>13.62466374545046</v>
       </c>
       <c r="F5">
-        <v>36.22271762214108</v>
+        <v>18.56502439786802</v>
       </c>
       <c r="G5">
-        <v>2.165613928574605</v>
+        <v>25.64746987907592</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.639135866412042</v>
       </c>
       <c r="I5">
-        <v>23.26030539610554</v>
+        <v>3.559477753752776</v>
       </c>
       <c r="J5">
-        <v>5.984584093463774</v>
+        <v>7.932455105786068</v>
       </c>
       <c r="K5">
-        <v>14.71131109609441</v>
+        <v>14.8540943949392</v>
       </c>
       <c r="L5">
-        <v>8.496834805620724</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.91407097342328</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.98399143080751</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>19.72622235477159</v>
+      </c>
+      <c r="P5">
+        <v>14.81257960914044</v>
+      </c>
+      <c r="Q5">
+        <v>14.11644629541151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.63403166885817</v>
+        <v>7.784582138541158</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.201510726129031</v>
+        <v>2.449980979766641</v>
       </c>
       <c r="E6">
-        <v>6.223229571716385</v>
+        <v>13.60763062321007</v>
       </c>
       <c r="F6">
-        <v>36.19961809595146</v>
+        <v>18.50864601617515</v>
       </c>
       <c r="G6">
-        <v>2.166001898712253</v>
+        <v>25.55726083248548</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.629478259890641</v>
       </c>
       <c r="I6">
-        <v>23.26256617873718</v>
+        <v>3.566181476253437</v>
       </c>
       <c r="J6">
-        <v>5.982476426119841</v>
+        <v>7.919401132020779</v>
       </c>
       <c r="K6">
-        <v>14.67391303065402</v>
+        <v>14.8635267754971</v>
       </c>
       <c r="L6">
-        <v>8.488401152013738</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.90345650885568</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.99222580886509</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19.67035220441937</v>
+      </c>
+      <c r="P6">
+        <v>14.80775534340039</v>
+      </c>
+      <c r="Q6">
+        <v>14.07920354499581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.7873164229073</v>
+        <v>7.942205660822871</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.243511523165311</v>
+        <v>2.486574997587116</v>
       </c>
       <c r="E7">
-        <v>6.276400819929588</v>
+        <v>13.69023238357457</v>
       </c>
       <c r="F7">
-        <v>36.36188758105477</v>
+        <v>18.88641662447706</v>
       </c>
       <c r="G7">
-        <v>2.163323165058578</v>
+        <v>26.15874039368114</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.696521080565375</v>
       </c>
       <c r="I7">
-        <v>23.24789645634088</v>
+        <v>3.55002614497545</v>
       </c>
       <c r="J7">
-        <v>5.997096264684348</v>
+        <v>8.005812688213657</v>
       </c>
       <c r="K7">
-        <v>14.93246411191029</v>
+        <v>14.88786235574709</v>
       </c>
       <c r="L7">
-        <v>8.547228871548837</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.97744176944067</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.93542743970292</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20.12450863134438</v>
+      </c>
+      <c r="P7">
+        <v>14.89834095386568</v>
+      </c>
+      <c r="Q7">
+        <v>14.32688951833369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.45169734479559</v>
+        <v>8.626953354629761</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.424321472800183</v>
+        <v>2.640411638200724</v>
       </c>
       <c r="E8">
-        <v>6.507490869951507</v>
+        <v>14.05279225051267</v>
       </c>
       <c r="F8">
-        <v>37.12617225755258</v>
+        <v>20.49280547229636</v>
       </c>
       <c r="G8">
-        <v>2.151843608543739</v>
+        <v>28.69156055789988</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.982104399950713</v>
       </c>
       <c r="I8">
-        <v>23.2092211566451</v>
+        <v>3.473936860563681</v>
       </c>
       <c r="J8">
-        <v>6.061440238857745</v>
+        <v>8.386136583854773</v>
       </c>
       <c r="K8">
-        <v>16.04595230575379</v>
+        <v>14.98651413915582</v>
       </c>
       <c r="L8">
-        <v>8.813696660545514</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.31114080768532</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.69363871329747</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>22.01263217925924</v>
+      </c>
+      <c r="P8">
+        <v>15.28402782491728</v>
+      </c>
+      <c r="Q8">
+        <v>15.39021543720076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.70037674324387</v>
+        <v>9.851882790642257</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.763885291938892</v>
+        <v>2.914569440626119</v>
       </c>
       <c r="E9">
-        <v>6.94878016212049</v>
+        <v>14.73842286464282</v>
       </c>
       <c r="F9">
-        <v>38.80135033616789</v>
+        <v>23.40347893127088</v>
       </c>
       <c r="G9">
-        <v>2.13045036085973</v>
+        <v>33.30223601493266</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.506755906435361</v>
       </c>
       <c r="I9">
-        <v>23.23460559942979</v>
+        <v>3.325211832913965</v>
       </c>
       <c r="J9">
-        <v>6.187748511425316</v>
+        <v>9.119773595284959</v>
       </c>
       <c r="K9">
-        <v>18.11700342606538</v>
+        <v>15.19479562287286</v>
       </c>
       <c r="L9">
-        <v>9.358438346059748</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.98748843409131</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.25151406779071</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>25.29399845009995</v>
+      </c>
+      <c r="P9">
+        <v>16.01477668086179</v>
+      </c>
+      <c r="Q9">
+        <v>17.34926966762885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.57738358053184</v>
+        <v>10.63951318655578</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.005896481976718</v>
+        <v>3.117198748440932</v>
       </c>
       <c r="E10">
-        <v>7.267024359641954</v>
+        <v>14.92381588868996</v>
       </c>
       <c r="F10">
-        <v>40.1424366210275</v>
+        <v>25.38321946290845</v>
       </c>
       <c r="G10">
-        <v>2.115301969831819</v>
+        <v>36.22918725728175</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.846819014063855</v>
       </c>
       <c r="I10">
-        <v>23.32237930297608</v>
+        <v>3.231556946019129</v>
       </c>
       <c r="J10">
-        <v>6.281428909661966</v>
+        <v>9.607264185156978</v>
       </c>
       <c r="K10">
-        <v>19.57446116070447</v>
+        <v>15.44150536712726</v>
       </c>
       <c r="L10">
-        <v>9.770264728391545</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.49459749716428</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.94657011764013</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>27.18498238729645</v>
+      </c>
+      <c r="P10">
+        <v>16.6004800851287</v>
+      </c>
+      <c r="Q10">
+        <v>18.63879853491905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.96651051377993</v>
+        <v>11.06024156503509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.114847956368827</v>
+        <v>3.361550600231356</v>
       </c>
       <c r="E11">
-        <v>7.410897349903904</v>
+        <v>13.338216324565</v>
       </c>
       <c r="F11">
-        <v>40.77718307898559</v>
+        <v>25.45706043757786</v>
       </c>
       <c r="G11">
-        <v>2.108506579919536</v>
+        <v>36.07471999153435</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.302884455618154</v>
       </c>
       <c r="I11">
-        <v>23.37902944149329</v>
+        <v>3.217797721904816</v>
       </c>
       <c r="J11">
-        <v>6.324442434545199</v>
+        <v>9.498375961332822</v>
       </c>
       <c r="K11">
-        <v>20.32508230474753</v>
+        <v>15.95027987870531</v>
       </c>
       <c r="L11">
-        <v>9.95982916159787</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.72694874615776</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.81229402047157</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>25.55099967566922</v>
+      </c>
+      <c r="P11">
+        <v>17.24997544034872</v>
+      </c>
+      <c r="Q11">
+        <v>18.57803738189935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.1123889056216</v>
+        <v>11.30687830296608</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.155988176365498</v>
+        <v>3.528735113212501</v>
       </c>
       <c r="E12">
-        <v>7.46529016810663</v>
+        <v>13.31277080395211</v>
       </c>
       <c r="F12">
-        <v>41.02116337293464</v>
+        <v>25.09961725656091</v>
       </c>
       <c r="G12">
-        <v>2.105944568827712</v>
+        <v>35.34968049895634</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.184867007956299</v>
       </c>
       <c r="I12">
-        <v>23.40303573817098</v>
+        <v>3.208834276027556</v>
       </c>
       <c r="J12">
-        <v>6.340807073395403</v>
+        <v>9.299828603593244</v>
       </c>
       <c r="K12">
-        <v>20.6046850841099</v>
+        <v>16.29249340823055</v>
       </c>
       <c r="L12">
-        <v>10.03191477025571</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.81513631938875</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.76210256734214</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>23.76113977385238</v>
+      </c>
+      <c r="P12">
+        <v>17.65712066407837</v>
+      </c>
+      <c r="Q12">
+        <v>18.21897021868921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.08103778284379</v>
+        <v>11.39595748332359</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.147132295978551</v>
+        <v>3.65063316268626</v>
       </c>
       <c r="E13">
-        <v>7.453578922500959</v>
+        <v>14.44989829269914</v>
       </c>
       <c r="F13">
-        <v>40.96845578577043</v>
+        <v>24.36940499051177</v>
       </c>
       <c r="G13">
-        <v>2.106495885692376</v>
+        <v>34.1052669674702</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.255429663531246</v>
       </c>
       <c r="I13">
-        <v>23.39774948904121</v>
+        <v>3.216848979288929</v>
       </c>
       <c r="J13">
-        <v>6.337278929932771</v>
+        <v>9.012761422328824</v>
       </c>
       <c r="K13">
-        <v>20.544671739964</v>
+        <v>16.56801073693491</v>
       </c>
       <c r="L13">
-        <v>10.01637662646748</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.79613511255608</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.77288270442669</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>21.71568441422556</v>
+      </c>
+      <c r="P13">
+        <v>17.93048528038306</v>
+      </c>
+      <c r="Q13">
+        <v>17.59064372662144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.97854187273354</v>
+        <v>11.37957676653889</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.118234646937941</v>
+        <v>3.716993270390097</v>
       </c>
       <c r="E14">
-        <v>7.415373799631225</v>
+        <v>15.80577409728273</v>
       </c>
       <c r="F14">
-        <v>40.79718257518243</v>
+        <v>23.67769808554857</v>
       </c>
       <c r="G14">
-        <v>2.108295591371018</v>
+        <v>32.97883284011716</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.077927340201475</v>
       </c>
       <c r="I14">
-        <v>23.38095238003847</v>
+        <v>3.232782446011604</v>
       </c>
       <c r="J14">
-        <v>6.325787115066007</v>
+        <v>8.768286744770975</v>
       </c>
       <c r="K14">
-        <v>20.34817758674054</v>
+        <v>16.7411403922213</v>
       </c>
       <c r="L14">
-        <v>9.965753715952195</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.7342001458186</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.80815148036097</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>20.15064315057325</v>
+      </c>
+      <c r="P14">
+        <v>18.06819471390223</v>
+      </c>
+      <c r="Q14">
+        <v>17.01894673860329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.91556651189317</v>
+        <v>11.32923889033433</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.100520223253954</v>
+        <v>3.723542629257357</v>
       </c>
       <c r="E15">
-        <v>7.39196183031447</v>
+        <v>16.17700013706705</v>
       </c>
       <c r="F15">
-        <v>40.6927459343762</v>
+        <v>23.42492224910298</v>
       </c>
       <c r="G15">
-        <v>2.109399350354261</v>
+        <v>32.58553756417196</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.266852773498085</v>
       </c>
       <c r="I15">
-        <v>23.37100086419595</v>
+        <v>3.244540330896049</v>
       </c>
       <c r="J15">
-        <v>6.318758597595371</v>
+        <v>8.689563688460542</v>
       </c>
       <c r="K15">
-        <v>20.22721906889816</v>
+        <v>16.78092030571259</v>
       </c>
       <c r="L15">
-        <v>9.934784613384528</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.69628840922792</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.82984062734703</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>19.7132904269148</v>
+      </c>
+      <c r="P15">
+        <v>18.07964787881214</v>
+      </c>
+      <c r="Q15">
+        <v>16.81792146774487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.55174966155693</v>
+        <v>10.97867340553682</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.998757131930421</v>
+        <v>3.622496236263954</v>
       </c>
       <c r="E16">
-        <v>7.25760712828924</v>
+        <v>15.86025760768975</v>
       </c>
       <c r="F16">
-        <v>40.10145636800039</v>
+        <v>22.65448990025892</v>
       </c>
       <c r="G16">
-        <v>2.115747781459894</v>
+        <v>31.51142281664429</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.9922175469365</v>
       </c>
       <c r="I16">
-        <v>23.31902616957546</v>
+        <v>3.288402841983288</v>
       </c>
       <c r="J16">
-        <v>6.278627464516131</v>
+        <v>8.52471127868604</v>
       </c>
       <c r="K16">
-        <v>19.52474919696229</v>
+        <v>16.62561702602834</v>
       </c>
       <c r="L16">
-        <v>9.75791925778087</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.47944283345637</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.95543615833561</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>19.19606773759137</v>
+      </c>
+      <c r="P16">
+        <v>17.78837741508913</v>
+      </c>
+      <c r="Q16">
+        <v>16.25724644726909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.32599173944686</v>
+        <v>10.71051448513197</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.936067742910809</v>
+        <v>3.506513948652908</v>
       </c>
       <c r="E17">
-        <v>7.174981219170339</v>
+        <v>14.79748578938934</v>
       </c>
       <c r="F17">
-        <v>39.74508256710615</v>
+        <v>22.44208576309554</v>
       </c>
       <c r="G17">
-        <v>2.119665139587007</v>
+        <v>31.30754448193917</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.295458137479311</v>
       </c>
       <c r="I17">
-        <v>23.29152812277729</v>
+        <v>3.31432590029726</v>
       </c>
       <c r="J17">
-        <v>6.254123121844462</v>
+        <v>8.532941923883016</v>
       </c>
       <c r="K17">
-        <v>19.1483392464529</v>
+        <v>16.41598625179257</v>
       </c>
       <c r="L17">
-        <v>9.649972126466579</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.34681160530039</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.03363399885211</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>19.66564015054674</v>
+      </c>
+      <c r="P17">
+        <v>17.48948869048971</v>
+      </c>
+      <c r="Q17">
+        <v>16.17838961310848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.19521908046742</v>
+        <v>10.51668931663126</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.899899914609342</v>
+        <v>3.365953253409131</v>
       </c>
       <c r="E18">
-        <v>7.127369608928529</v>
+        <v>13.45520137939478</v>
       </c>
       <c r="F18">
-        <v>39.54242389170192</v>
+        <v>22.70050582472946</v>
       </c>
       <c r="G18">
-        <v>2.121927470607133</v>
+        <v>31.85239795499711</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.234675474024092</v>
       </c>
       <c r="I18">
-        <v>23.27727647420767</v>
+        <v>3.317481434036641</v>
       </c>
       <c r="J18">
-        <v>6.240065044770674</v>
+        <v>8.690095585572035</v>
       </c>
       <c r="K18">
-        <v>18.93297715315959</v>
+        <v>16.11090194289801</v>
       </c>
       <c r="L18">
-        <v>9.588093608035384</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.27068410949066</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.07902841657666</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>21.05230074185481</v>
+      </c>
+      <c r="P18">
+        <v>17.13786927375547</v>
+      </c>
+      <c r="Q18">
+        <v>16.49508470730336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.15078547225416</v>
+        <v>10.34228032022527</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.887633808773887</v>
+        <v>3.219862314898849</v>
       </c>
       <c r="E19">
-        <v>7.111233023937547</v>
+        <v>12.9651251214586</v>
       </c>
       <c r="F19">
-        <v>39.4742035291857</v>
+        <v>23.30963846644417</v>
       </c>
       <c r="G19">
-        <v>2.122695104434174</v>
+        <v>32.9430475660031</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.196202801541619</v>
       </c>
       <c r="I19">
-        <v>23.27271538464186</v>
+        <v>3.319470007027259</v>
       </c>
       <c r="J19">
-        <v>6.235310887686761</v>
+        <v>8.948369207940205</v>
       </c>
       <c r="K19">
-        <v>18.85977911391091</v>
+        <v>15.8221390388171</v>
       </c>
       <c r="L19">
-        <v>9.567179315041884</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.2449371708268</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.09446937435279</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.09973938701147</v>
+      </c>
+      <c r="P19">
+        <v>16.81146459832946</v>
+      </c>
+      <c r="Q19">
+        <v>17.0603141244859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.35012006547058</v>
+        <v>10.34479513499562</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.942752260087902</v>
+        <v>3.067391864149948</v>
       </c>
       <c r="E20">
-        <v>7.183785663105921</v>
+        <v>14.83269923228312</v>
       </c>
       <c r="F20">
-        <v>39.78277882397015</v>
+        <v>24.84273540716536</v>
       </c>
       <c r="G20">
-        <v>2.119247198416422</v>
+        <v>35.4578181799659</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.757258829301574</v>
       </c>
       <c r="I20">
-        <v>23.29429235843895</v>
+        <v>3.284212754657915</v>
       </c>
       <c r="J20">
-        <v>6.256727775834758</v>
+        <v>9.475142455768374</v>
       </c>
       <c r="K20">
-        <v>19.18806455323871</v>
+        <v>15.46861177990985</v>
       </c>
       <c r="L20">
-        <v>9.661441722737637</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.36091432840234</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.02526642917939</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>26.73571625475595</v>
+      </c>
+      <c r="P20">
+        <v>16.50375995234795</v>
+      </c>
+      <c r="Q20">
+        <v>18.2775288696092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.00868784648266</v>
+        <v>10.91552395332789</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.126725365507251</v>
+        <v>3.189289140792932</v>
       </c>
       <c r="E21">
-        <v>7.426597618731447</v>
+        <v>15.42140364240401</v>
       </c>
       <c r="F21">
-        <v>40.84739091979413</v>
+        <v>26.51041560180057</v>
       </c>
       <c r="G21">
-        <v>2.107766689899885</v>
+        <v>37.87265295092728</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.052569551292417</v>
       </c>
       <c r="I21">
-        <v>23.38581554782526</v>
+        <v>3.20687487978181</v>
       </c>
       <c r="J21">
-        <v>6.329160303337559</v>
+        <v>9.903133126271113</v>
       </c>
       <c r="K21">
-        <v>20.40601749749287</v>
+        <v>15.59365178339909</v>
       </c>
       <c r="L21">
-        <v>9.980614807328216</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.7523867468393</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.79777422663019</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>28.55124043699911</v>
+      </c>
+      <c r="P21">
+        <v>16.87686432006873</v>
+      </c>
+      <c r="Q21">
+        <v>19.49008788165109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.43048480645309</v>
+        <v>11.31219210876201</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.246305166770305</v>
+        <v>3.274454091210772</v>
       </c>
       <c r="E22">
-        <v>7.584796421278027</v>
+        <v>15.66640872354201</v>
       </c>
       <c r="F22">
-        <v>41.56429626264352</v>
+        <v>27.51599621274839</v>
       </c>
       <c r="G22">
-        <v>2.100327774130061</v>
+        <v>39.31588062290628</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.228433688167012</v>
       </c>
       <c r="I22">
-        <v>23.46059398855812</v>
+        <v>3.147171497901407</v>
       </c>
       <c r="J22">
-        <v>6.37695480922291</v>
+        <v>10.16136395769677</v>
       </c>
       <c r="K22">
-        <v>21.21136529930986</v>
+        <v>15.66380034972292</v>
       </c>
       <c r="L22">
-        <v>10.19096891699466</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.00939814278038</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.65292959976393</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>29.52720314494603</v>
+      </c>
+      <c r="P22">
+        <v>17.11804047100915</v>
+      </c>
+      <c r="Q22">
+        <v>20.23860943408318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.20616744302234</v>
+        <v>11.13656247081769</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.182526079611784</v>
+        <v>3.228807094769732</v>
       </c>
       <c r="E23">
-        <v>7.500392419755149</v>
+        <v>15.54718623472159</v>
       </c>
       <c r="F23">
-        <v>41.17971080374176</v>
+        <v>26.98550899304749</v>
       </c>
       <c r="G23">
-        <v>2.104293077135654</v>
+        <v>38.55534340360744</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.134623679295196</v>
       </c>
       <c r="I23">
-        <v>23.41926266040166</v>
+        <v>3.167913314701099</v>
       </c>
       <c r="J23">
-        <v>6.351397336634844</v>
+        <v>10.02506080556751</v>
       </c>
       <c r="K23">
-        <v>20.78395621262813</v>
+        <v>15.59046377789127</v>
       </c>
       <c r="L23">
-        <v>10.0785420607589</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.872130311386</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.72987829561626</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>28.99351128834057</v>
+      </c>
+      <c r="P23">
+        <v>16.96901642360336</v>
+      </c>
+      <c r="Q23">
+        <v>19.84415041248796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.33921470122389</v>
+        <v>10.37859369875713</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.939730588465207</v>
+        <v>3.050271340083803</v>
       </c>
       <c r="E24">
-        <v>7.179805516068799</v>
+        <v>15.07025016019124</v>
       </c>
       <c r="F24">
-        <v>39.76572941948005</v>
+        <v>24.89679882777821</v>
       </c>
       <c r="G24">
-        <v>2.119436117695181</v>
+        <v>35.5597693645414</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.773271185765866</v>
       </c>
       <c r="I24">
-        <v>23.29303780793843</v>
+        <v>3.266856291801878</v>
       </c>
       <c r="J24">
-        <v>6.255550120374012</v>
+        <v>9.500120845347148</v>
       </c>
       <c r="K24">
-        <v>19.17011014378508</v>
+        <v>15.38271059693488</v>
       </c>
       <c r="L24">
-        <v>9.656255750760408</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.35453809815373</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.02904804613096</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>26.91143793151089</v>
+      </c>
+      <c r="P24">
+        <v>16.43358001022807</v>
+      </c>
+      <c r="Q24">
+        <v>18.33105255425074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36922972783988</v>
+        <v>9.479901924394206</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.673476812943172</v>
+        <v>2.844148698360424</v>
       </c>
       <c r="E25">
-        <v>6.830559738797502</v>
+        <v>14.53919357742791</v>
       </c>
       <c r="F25">
-        <v>38.3289988138805</v>
+        <v>22.63819285037182</v>
       </c>
       <c r="G25">
-        <v>2.136129143460833</v>
+        <v>32.09513921635707</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.368759426486159</v>
       </c>
       <c r="I25">
-        <v>23.21615595882365</v>
+        <v>3.379826672147447</v>
       </c>
       <c r="J25">
-        <v>6.153487142778807</v>
+        <v>8.921301673690381</v>
       </c>
       <c r="K25">
-        <v>17.56975715901214</v>
+        <v>15.184368797251</v>
       </c>
       <c r="L25">
-        <v>9.208909294729333</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.80251500138695</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.36766361431233</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>24.47767443911335</v>
+      </c>
+      <c r="P25">
+        <v>15.84905663033095</v>
+      </c>
+      <c r="Q25">
+        <v>16.82981525071783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.851338857064208</v>
+        <v>9.676403403314291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.679643258197878</v>
+        <v>2.72869864486117</v>
       </c>
       <c r="E2">
-        <v>14.16288457944852</v>
+        <v>14.14512510648122</v>
       </c>
       <c r="F2">
-        <v>20.916280712817</v>
+        <v>21.03785948372892</v>
       </c>
       <c r="G2">
-        <v>29.35521475839967</v>
+        <v>29.60587688190764</v>
       </c>
       <c r="H2">
-        <v>3.05684097057017</v>
+        <v>3.021700427079058</v>
       </c>
       <c r="I2">
-        <v>3.442230212124864</v>
+        <v>3.164126557257176</v>
       </c>
       <c r="J2">
-        <v>8.490120844673719</v>
+        <v>9.336446697103238</v>
       </c>
       <c r="K2">
-        <v>14.97706126450755</v>
+        <v>13.83164993079503</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.74517572071243</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.723096140963731</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.47265852938737</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.36383182585724</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.67370838443229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>22.00055084923073</v>
+      </c>
+      <c r="R2">
+        <v>14.801707063978</v>
+      </c>
+      <c r="S2">
+        <v>15.81994890785009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.327974288946201</v>
+        <v>9.121051159252925</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.562007757578561</v>
+        <v>2.609997004769698</v>
       </c>
       <c r="E3">
-        <v>13.88099827282215</v>
+        <v>13.85921738745721</v>
       </c>
       <c r="F3">
-        <v>19.68190420351318</v>
+        <v>19.81635613026813</v>
       </c>
       <c r="G3">
-        <v>27.41844910941241</v>
+        <v>27.56387654226599</v>
       </c>
       <c r="H3">
-        <v>2.836803871822098</v>
+        <v>2.805711525171896</v>
       </c>
       <c r="I3">
-        <v>3.501910640882187</v>
+        <v>3.213547452487786</v>
       </c>
       <c r="J3">
-        <v>8.192290940054564</v>
+        <v>9.055309076873156</v>
       </c>
       <c r="K3">
-        <v>14.89927413412306</v>
+        <v>13.78324848982398</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.61216983034427</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.831969630562932</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.03917618395387</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.06411115271019</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.8524484082723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>20.59522402098967</v>
+      </c>
+      <c r="R3">
+        <v>14.52162495906797</v>
+      </c>
+      <c r="S3">
+        <v>15.00866766017543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.983968771954478</v>
+        <v>8.754504206074746</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.486492503509579</v>
+        <v>2.533829018756426</v>
       </c>
       <c r="E4">
-        <v>13.70226024619728</v>
+        <v>13.67762106846508</v>
       </c>
       <c r="F4">
-        <v>18.89425321292673</v>
+        <v>19.03683340234341</v>
       </c>
       <c r="G4">
-        <v>26.17180538880587</v>
+        <v>26.24462319322121</v>
       </c>
       <c r="H4">
-        <v>2.69716227647163</v>
+        <v>2.668612356273376</v>
       </c>
       <c r="I4">
-        <v>3.540502742676845</v>
+        <v>3.245852217464893</v>
       </c>
       <c r="J4">
-        <v>8.008122050841905</v>
+        <v>8.880136000684196</v>
       </c>
       <c r="K4">
-        <v>14.85979001448005</v>
+        <v>13.76251525867651</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.55332320333005</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.904354190671533</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.10996503262804</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.88132443071451</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.33276522380004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>19.68457198698255</v>
+      </c>
+      <c r="R4">
+        <v>14.35195007938956</v>
+      </c>
+      <c r="S4">
+        <v>14.49512994753317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.825999626328817</v>
+        <v>8.587841003069473</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.455061952519914</v>
+        <v>2.502112537443629</v>
       </c>
       <c r="E5">
-        <v>13.62466374545046</v>
+        <v>13.59891283898247</v>
       </c>
       <c r="F5">
-        <v>18.56502439786802</v>
+        <v>18.71108296706511</v>
       </c>
       <c r="G5">
-        <v>25.64746987907592</v>
+        <v>25.68889918783645</v>
       </c>
       <c r="H5">
-        <v>2.639135866412042</v>
+        <v>2.611625981278953</v>
       </c>
       <c r="I5">
-        <v>3.559477753752776</v>
+        <v>3.262780936830002</v>
       </c>
       <c r="J5">
-        <v>7.932455105786068</v>
+        <v>8.80786562444036</v>
       </c>
       <c r="K5">
-        <v>14.8540943949392</v>
+        <v>13.76222529931957</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.53688351085146</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.942348408484461</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.72622235477159</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.81257960914044</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.11644629541151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>19.30724806532382</v>
+      </c>
+      <c r="R5">
+        <v>14.28793485990841</v>
+      </c>
+      <c r="S5">
+        <v>14.2814122151879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.784582138541158</v>
+        <v>8.546510458065665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.449980979766641</v>
+        <v>2.496959123789832</v>
       </c>
       <c r="E6">
-        <v>13.60763062321007</v>
+        <v>13.58187264555671</v>
       </c>
       <c r="F6">
-        <v>18.50864601617515</v>
+        <v>18.65541774420445</v>
       </c>
       <c r="G6">
-        <v>25.55726083248548</v>
+        <v>25.59360322145991</v>
       </c>
       <c r="H6">
-        <v>2.629478259890641</v>
+        <v>2.602128305685215</v>
       </c>
       <c r="I6">
-        <v>3.566181476253437</v>
+        <v>3.269822694442987</v>
       </c>
       <c r="J6">
-        <v>7.919401132020779</v>
+        <v>8.795431518997777</v>
       </c>
       <c r="K6">
-        <v>14.8635267754971</v>
+        <v>13.76961674076725</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.53666895643598</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.957460028297023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.67035220441937</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.80775534340039</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.07920354499581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>19.25087520034383</v>
+      </c>
+      <c r="R6">
+        <v>14.28283111533818</v>
+      </c>
+      <c r="S6">
+        <v>14.24471840499077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.942205660822871</v>
+        <v>8.717467743846051</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.486574997587116</v>
+        <v>2.537217232993878</v>
       </c>
       <c r="E7">
-        <v>13.69023238357457</v>
+        <v>13.66838025474235</v>
       </c>
       <c r="F7">
-        <v>18.88641662447706</v>
+        <v>19.00832934537523</v>
       </c>
       <c r="G7">
-        <v>26.15874039368114</v>
+        <v>26.33759160739826</v>
       </c>
       <c r="H7">
-        <v>2.696521080565375</v>
+        <v>2.66741859098944</v>
       </c>
       <c r="I7">
-        <v>3.55002614497545</v>
+        <v>3.25714142237318</v>
       </c>
       <c r="J7">
-        <v>8.005812688213657</v>
+        <v>8.814251298870062</v>
       </c>
       <c r="K7">
-        <v>14.88786235574709</v>
+        <v>13.78321875483172</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.56024030606667</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.928714283710084</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.12450863134438</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.89834095386568</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.32688951833369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>19.69056003495421</v>
+      </c>
+      <c r="R7">
+        <v>14.36679846209233</v>
+      </c>
+      <c r="S7">
+        <v>14.47158960886334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.626953354629761</v>
+        <v>9.448697807709811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.640411638200724</v>
+        <v>2.699745030710542</v>
       </c>
       <c r="E8">
-        <v>14.05279225051267</v>
+        <v>14.04212235201936</v>
       </c>
       <c r="F8">
-        <v>20.49280547229636</v>
+        <v>20.55399451102994</v>
       </c>
       <c r="G8">
-        <v>28.69156055789988</v>
+        <v>29.23063462629838</v>
       </c>
       <c r="H8">
-        <v>2.982104399950713</v>
+        <v>2.946636780433591</v>
       </c>
       <c r="I8">
-        <v>3.473936860563681</v>
+        <v>3.19459809759357</v>
       </c>
       <c r="J8">
-        <v>8.386136583854773</v>
+        <v>9.034241568755007</v>
       </c>
       <c r="K8">
-        <v>14.98651413915582</v>
+        <v>13.8429589704048</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.70927350004883</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.790214611263345</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.01263217925924</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>15.28402782491728</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.39021543720076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>21.52524800729277</v>
+      </c>
+      <c r="R8">
+        <v>14.72709596618568</v>
+      </c>
+      <c r="S8">
+        <v>15.48398444677725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.851882790642257</v>
+        <v>10.73491515979675</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.914569440626119</v>
+        <v>2.978572687265011</v>
       </c>
       <c r="E9">
-        <v>14.73842286464282</v>
+        <v>14.7370598345044</v>
       </c>
       <c r="F9">
-        <v>23.40347893127088</v>
+        <v>23.42440007898596</v>
       </c>
       <c r="G9">
-        <v>33.30223601493266</v>
+        <v>34.00665542101191</v>
       </c>
       <c r="H9">
-        <v>3.506755906435361</v>
+        <v>3.461196498637458</v>
       </c>
       <c r="I9">
-        <v>3.325211832913965</v>
+        <v>3.069637959331735</v>
       </c>
       <c r="J9">
-        <v>9.119773595284959</v>
+        <v>9.678427916811362</v>
       </c>
       <c r="K9">
-        <v>15.19479562287286</v>
+        <v>13.99175188868822</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.15465970006644</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.522698292602733</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.29399845009995</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>16.01477668086179</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.34926966762885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>24.76338137731539</v>
+      </c>
+      <c r="R9">
+        <v>15.41846073043995</v>
+      </c>
+      <c r="S9">
+        <v>17.40952022089551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.63951318655578</v>
+        <v>11.56913993875918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.117198748440932</v>
+        <v>3.200715497688312</v>
       </c>
       <c r="E10">
-        <v>14.92381588868996</v>
+        <v>14.92302358357509</v>
       </c>
       <c r="F10">
-        <v>25.38321946290845</v>
+        <v>25.20350787654753</v>
       </c>
       <c r="G10">
-        <v>36.22918725728175</v>
+        <v>37.49136671083744</v>
       </c>
       <c r="H10">
-        <v>3.846819014063855</v>
+        <v>3.791591904436507</v>
       </c>
       <c r="I10">
-        <v>3.231556946019129</v>
+        <v>2.99450459082508</v>
       </c>
       <c r="J10">
-        <v>9.607264185156978</v>
+        <v>9.775968751837379</v>
       </c>
       <c r="K10">
-        <v>15.44150536712726</v>
+        <v>14.18800343554852</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.60766264109778</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.388309876450514</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.18498238729645</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>16.6004800851287</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>18.63879853491905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>26.60963150444748</v>
+      </c>
+      <c r="R10">
+        <v>15.97724502340876</v>
+      </c>
+      <c r="S10">
+        <v>18.56878506567208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.06024156503509</v>
+        <v>12.07971584652237</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.361550600231356</v>
+        <v>3.479925221545185</v>
       </c>
       <c r="E11">
-        <v>13.338216324565</v>
+        <v>13.14271768938845</v>
       </c>
       <c r="F11">
-        <v>25.45706043757786</v>
+        <v>25.06830402703302</v>
       </c>
       <c r="G11">
-        <v>36.07471999153435</v>
+        <v>38.36506876985673</v>
       </c>
       <c r="H11">
-        <v>4.302884455618154</v>
+        <v>4.247513702627223</v>
       </c>
       <c r="I11">
-        <v>3.217797721904816</v>
+        <v>2.990527375670894</v>
       </c>
       <c r="J11">
-        <v>9.498375961332822</v>
+        <v>8.971763224512561</v>
       </c>
       <c r="K11">
-        <v>15.95027987870531</v>
+        <v>14.58016779366485</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.04866998192008</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.565805130653466</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.55099967566922</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>17.24997544034872</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>18.57803738189935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>24.8727910726525</v>
+      </c>
+      <c r="R11">
+        <v>16.57254973544756</v>
+      </c>
+      <c r="S11">
+        <v>18.22225114583666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.30687830296608</v>
+        <v>12.38533430219698</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.528735113212501</v>
+        <v>3.663515401414606</v>
       </c>
       <c r="E12">
-        <v>13.31277080395211</v>
+        <v>12.89461297278401</v>
       </c>
       <c r="F12">
-        <v>25.09961725656091</v>
+        <v>24.6159319944622</v>
       </c>
       <c r="G12">
-        <v>35.34968049895634</v>
+        <v>38.1210976398307</v>
       </c>
       <c r="H12">
-        <v>5.184867007956299</v>
+        <v>5.137751529761307</v>
       </c>
       <c r="I12">
-        <v>3.208834276027556</v>
+        <v>2.98288662328952</v>
       </c>
       <c r="J12">
-        <v>9.299828603593244</v>
+        <v>8.470147097284833</v>
       </c>
       <c r="K12">
-        <v>16.29249340823055</v>
+        <v>14.83888119077974</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.30181605117401</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.716619823738775</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.76113977385238</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>17.65712066407837</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>18.21897021868921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>23.02887632640291</v>
+      </c>
+      <c r="R12">
+        <v>16.9393746937382</v>
+      </c>
+      <c r="S12">
+        <v>17.77346553129497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.39595748332359</v>
+        <v>12.51978087038911</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.65063316268626</v>
+        <v>3.779163339242725</v>
       </c>
       <c r="E13">
-        <v>14.44989829269914</v>
+        <v>13.85569479324797</v>
       </c>
       <c r="F13">
-        <v>24.36940499051177</v>
+        <v>23.91139316147847</v>
       </c>
       <c r="G13">
-        <v>34.1052669674702</v>
+        <v>36.78668717116218</v>
       </c>
       <c r="H13">
-        <v>6.255429663531246</v>
+        <v>6.218114345401253</v>
       </c>
       <c r="I13">
-        <v>3.216848979288929</v>
+        <v>2.98869154685612</v>
       </c>
       <c r="J13">
-        <v>9.012761422328824</v>
+        <v>8.288637251652004</v>
       </c>
       <c r="K13">
-        <v>16.56801073693491</v>
+        <v>15.03839672102019</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.43725650955592</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.885643197982018</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.71568441422556</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>17.93048528038306</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>17.59064372662144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>20.97359779026498</v>
+      </c>
+      <c r="R13">
+        <v>17.17378493116211</v>
+      </c>
+      <c r="S13">
+        <v>17.16665291018554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.37957676653889</v>
+        <v>12.53058428229703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.716993270390097</v>
+        <v>3.830458530191553</v>
       </c>
       <c r="E14">
-        <v>15.80577409728273</v>
+        <v>15.13782426118967</v>
       </c>
       <c r="F14">
-        <v>23.67769808554857</v>
+        <v>23.29097069010759</v>
       </c>
       <c r="G14">
-        <v>32.97883284011716</v>
+        <v>35.34629912820053</v>
       </c>
       <c r="H14">
-        <v>7.077927340201475</v>
+        <v>7.046939124318592</v>
       </c>
       <c r="I14">
-        <v>3.232782446011604</v>
+        <v>3.002130217872887</v>
       </c>
       <c r="J14">
-        <v>8.768286744770975</v>
+        <v>8.29474675461578</v>
       </c>
       <c r="K14">
-        <v>16.7411403922213</v>
+        <v>15.15888423942142</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.48279846429121</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.02014227040483</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.15064315057325</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>18.06819471390223</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>17.01894673860329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>19.42055782981628</v>
+      </c>
+      <c r="R14">
+        <v>17.28359698392385</v>
+      </c>
+      <c r="S14">
+        <v>16.6564025454218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.32923889033433</v>
+        <v>12.48565785311184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.723542629257357</v>
+        <v>3.828716142377562</v>
       </c>
       <c r="E15">
-        <v>16.17700013706705</v>
+        <v>15.50217197219922</v>
       </c>
       <c r="F15">
-        <v>23.42492224910298</v>
+        <v>23.07877152570635</v>
       </c>
       <c r="G15">
-        <v>32.58553756417196</v>
+        <v>34.76781989473066</v>
       </c>
       <c r="H15">
-        <v>7.266852773498085</v>
+        <v>7.237625908251895</v>
       </c>
       <c r="I15">
-        <v>3.244540330896049</v>
+        <v>3.013375418903748</v>
       </c>
       <c r="J15">
-        <v>8.689563688460542</v>
+        <v>8.352872363947624</v>
       </c>
       <c r="K15">
-        <v>16.78092030571259</v>
+        <v>15.185146505081</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.47491039824477</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.06548026878401</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.7132904269148</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>18.07964787881214</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>16.81792146774487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.99360437695938</v>
+      </c>
+      <c r="R15">
+        <v>17.28771768826931</v>
+      </c>
+      <c r="S15">
+        <v>16.49056334288044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.97867340553682</v>
+        <v>12.11041802959917</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.622496236263954</v>
+        <v>3.690212322680802</v>
       </c>
       <c r="E16">
-        <v>15.86025760768975</v>
+        <v>15.24700076446003</v>
       </c>
       <c r="F16">
-        <v>22.65448990025892</v>
+        <v>22.50200647679204</v>
       </c>
       <c r="G16">
-        <v>31.51142281664429</v>
+        <v>32.78090236118187</v>
       </c>
       <c r="H16">
-        <v>6.9922175469365</v>
+        <v>6.966650765084578</v>
       </c>
       <c r="I16">
-        <v>3.288402841983288</v>
+        <v>3.050815828584739</v>
       </c>
       <c r="J16">
-        <v>8.52471127868604</v>
+        <v>8.820036432308877</v>
       </c>
       <c r="K16">
-        <v>16.62561702602834</v>
+        <v>15.05129924393588</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.22061629092599</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.10010003688643</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.19606773759137</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>17.78837741508913</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16.25724644726909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.54282809713208</v>
+      </c>
+      <c r="R16">
+        <v>17.00387000785016</v>
+      </c>
+      <c r="S16">
+        <v>16.20623441475812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.71051448513197</v>
+        <v>11.80832385993846</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.506513948652908</v>
+        <v>3.559419169880669</v>
       </c>
       <c r="E17">
-        <v>14.79748578938934</v>
+        <v>14.25398109122131</v>
       </c>
       <c r="F17">
-        <v>22.44208576309554</v>
+        <v>22.40690992694359</v>
       </c>
       <c r="G17">
-        <v>31.30754448193917</v>
+        <v>32.16049302340377</v>
       </c>
       <c r="H17">
-        <v>6.295458137479311</v>
+        <v>6.269607626826502</v>
       </c>
       <c r="I17">
-        <v>3.31432590029726</v>
+        <v>3.073248071619173</v>
       </c>
       <c r="J17">
-        <v>8.532941923883016</v>
+        <v>9.098535314104144</v>
       </c>
       <c r="K17">
-        <v>16.41598625179257</v>
+        <v>14.88884962903858</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.0088756207535</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.05539992228708</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.66564015054674</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>17.48948869048971</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>16.17838961310848</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>19.04950359113584</v>
+      </c>
+      <c r="R17">
+        <v>16.72776125580394</v>
+      </c>
+      <c r="S17">
+        <v>16.24168143754028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.51668931663126</v>
+        <v>11.56466123663749</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.365953253409131</v>
+        <v>3.415188312325315</v>
       </c>
       <c r="E18">
-        <v>13.45520137939478</v>
+        <v>13.02789762026507</v>
       </c>
       <c r="F18">
-        <v>22.70050582472946</v>
+        <v>22.73203217689613</v>
       </c>
       <c r="G18">
-        <v>31.85239795499711</v>
+        <v>32.5113732040452</v>
       </c>
       <c r="H18">
-        <v>5.234675474024092</v>
+        <v>5.204611174269525</v>
       </c>
       <c r="I18">
-        <v>3.317481434036641</v>
+        <v>3.073116756731177</v>
       </c>
       <c r="J18">
-        <v>8.690095585572035</v>
+        <v>9.360385715411269</v>
       </c>
       <c r="K18">
-        <v>16.11090194289801</v>
+        <v>14.66151583003605</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.79420253779253</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.917689862314573</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.05230074185481</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>17.13786927375547</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16.49508470730336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>20.4661537882077</v>
+      </c>
+      <c r="R18">
+        <v>16.41465611132713</v>
+      </c>
+      <c r="S18">
+        <v>16.58628562263976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.34228032022527</v>
+        <v>11.33772405053756</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.219862314898849</v>
+        <v>3.271513811038205</v>
       </c>
       <c r="E19">
-        <v>12.9651251214586</v>
+        <v>12.71187752630468</v>
       </c>
       <c r="F19">
-        <v>23.30963846644417</v>
+        <v>23.35772682872263</v>
       </c>
       <c r="G19">
-        <v>32.9430475660031</v>
+        <v>33.53463652551593</v>
       </c>
       <c r="H19">
-        <v>4.196202801541619</v>
+        <v>4.15767430521659</v>
       </c>
       <c r="I19">
-        <v>3.319470007027259</v>
+        <v>3.07655005049591</v>
       </c>
       <c r="J19">
-        <v>8.948369207940205</v>
+        <v>9.633437162752241</v>
       </c>
       <c r="K19">
-        <v>15.8221390388171</v>
+        <v>14.45379841335634</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.63062824623447</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.761155567783788</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.09973938701147</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>16.81146459832946</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>17.0603141244859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>22.53838711710966</v>
+      </c>
+      <c r="R19">
+        <v>16.12986626165076</v>
+      </c>
+      <c r="S19">
+        <v>17.15426747310046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.34479513499562</v>
+        <v>11.27258664095237</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.067391864149948</v>
+        <v>3.135266674885891</v>
       </c>
       <c r="E20">
-        <v>14.83269923228312</v>
+        <v>14.82475448055808</v>
       </c>
       <c r="F20">
-        <v>24.84273540716536</v>
+        <v>24.78025937819858</v>
       </c>
       <c r="G20">
-        <v>35.4578181799659</v>
+        <v>36.2960024209565</v>
       </c>
       <c r="H20">
-        <v>3.757258829301574</v>
+        <v>3.706011686228708</v>
       </c>
       <c r="I20">
-        <v>3.284212754657915</v>
+        <v>3.04829644658854</v>
       </c>
       <c r="J20">
-        <v>9.475142455768374</v>
+        <v>9.946240168397379</v>
       </c>
       <c r="K20">
-        <v>15.46861177990985</v>
+        <v>14.20660052159959</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.53373099643498</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.483295779930973</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.73571625475595</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>16.50375995234795</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>18.2775288696092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>26.18770106517425</v>
+      </c>
+      <c r="R20">
+        <v>15.87718996689777</v>
+      </c>
+      <c r="S20">
+        <v>18.31131267239471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.91552395332789</v>
+        <v>11.8703382181598</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.189289140792932</v>
+        <v>3.326256602672645</v>
       </c>
       <c r="E21">
-        <v>15.42140364240401</v>
+        <v>15.48653206923686</v>
       </c>
       <c r="F21">
-        <v>26.51041560180057</v>
+        <v>26.02965041956398</v>
       </c>
       <c r="G21">
-        <v>37.87265295092728</v>
+        <v>40.5553492624903</v>
       </c>
       <c r="H21">
-        <v>4.052569551292417</v>
+        <v>3.985855839547497</v>
       </c>
       <c r="I21">
-        <v>3.20687487978181</v>
+        <v>2.9849386737883</v>
       </c>
       <c r="J21">
-        <v>9.903133126271113</v>
+        <v>9.047905691325607</v>
       </c>
       <c r="K21">
-        <v>15.59365178339909</v>
+        <v>14.32560351138483</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.87879236973255</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.347367692285095</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.55124043699911</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>16.87686432006873</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>19.49008788165109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>27.87051498686361</v>
+      </c>
+      <c r="R21">
+        <v>16.25399290333066</v>
+      </c>
+      <c r="S21">
+        <v>19.04878840992712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.31219210876201</v>
+        <v>12.2831616167273</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.274454091210772</v>
+        <v>3.459288770161929</v>
       </c>
       <c r="E22">
-        <v>15.66640872354201</v>
+        <v>15.77557423008271</v>
       </c>
       <c r="F22">
-        <v>27.51599621274839</v>
+        <v>26.77081022101314</v>
       </c>
       <c r="G22">
-        <v>39.31588062290628</v>
+        <v>43.24123072916273</v>
       </c>
       <c r="H22">
-        <v>4.228433688167012</v>
+        <v>4.15170058931056</v>
       </c>
       <c r="I22">
-        <v>3.147171497901407</v>
+        <v>2.931776778363054</v>
       </c>
       <c r="J22">
-        <v>10.16136395769677</v>
+        <v>8.396362292693539</v>
       </c>
       <c r="K22">
-        <v>15.66380034972292</v>
+        <v>14.39533126721953</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.10507540902975</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.251571607808373</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.52720314494603</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>17.11804047100915</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>20.23860943408318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>28.75618955147469</v>
+      </c>
+      <c r="R22">
+        <v>16.49939975859445</v>
+      </c>
+      <c r="S22">
+        <v>19.56606565779875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.13656247081769</v>
+        <v>12.09400258808199</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.228807094769732</v>
+        <v>3.380769535778631</v>
       </c>
       <c r="E23">
-        <v>15.54718623472159</v>
+        <v>15.6252457977764</v>
       </c>
       <c r="F23">
-        <v>26.98550899304749</v>
+        <v>26.4213054452921</v>
       </c>
       <c r="G23">
-        <v>38.55534340360744</v>
+        <v>41.62500039029022</v>
       </c>
       <c r="H23">
-        <v>4.134623679295196</v>
+        <v>4.064271976829762</v>
       </c>
       <c r="I23">
-        <v>3.167913314701099</v>
+        <v>2.946574104144082</v>
       </c>
       <c r="J23">
-        <v>10.02506080556751</v>
+        <v>8.882320141667845</v>
       </c>
       <c r="K23">
-        <v>15.59046377789127</v>
+        <v>14.32739202172348</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.96095271188898</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.278464982692519</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.99351128834057</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>16.96901642360336</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>19.84415041248796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>28.28644501978231</v>
+      </c>
+      <c r="R23">
+        <v>16.34889283485336</v>
+      </c>
+      <c r="S23">
+        <v>19.32996204787282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.37859369875713</v>
+        <v>11.29377603420013</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.050271340083803</v>
+        <v>3.118078500750587</v>
       </c>
       <c r="E24">
-        <v>15.07025016019124</v>
+        <v>15.07464470802635</v>
       </c>
       <c r="F24">
-        <v>24.89679882777821</v>
+        <v>24.83850472245432</v>
       </c>
       <c r="G24">
-        <v>35.5597693645414</v>
+        <v>36.37872739039729</v>
       </c>
       <c r="H24">
-        <v>3.773271185765866</v>
+        <v>3.722171387398714</v>
       </c>
       <c r="I24">
-        <v>3.266856291801878</v>
+        <v>3.027143874055831</v>
       </c>
       <c r="J24">
-        <v>9.500120845347148</v>
+        <v>9.980976699704524</v>
       </c>
       <c r="K24">
-        <v>15.38271059693488</v>
+        <v>14.14030988925895</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.48313526458866</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.431762613890028</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.91143793151089</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>16.43358001022807</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>18.33105255425074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>26.36976818755723</v>
+      </c>
+      <c r="R24">
+        <v>15.81565737894662</v>
+      </c>
+      <c r="S24">
+        <v>18.36687740694997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.479901924394206</v>
+        <v>10.35437838609088</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.844148698360424</v>
+        <v>2.902455309378552</v>
       </c>
       <c r="E25">
-        <v>14.53919357742791</v>
+        <v>14.53337209791915</v>
       </c>
       <c r="F25">
-        <v>22.63819285037182</v>
+        <v>22.69592264192922</v>
       </c>
       <c r="G25">
-        <v>32.09513921635707</v>
+        <v>32.63773827615516</v>
       </c>
       <c r="H25">
-        <v>3.368759426486159</v>
+        <v>3.32649563671037</v>
       </c>
       <c r="I25">
-        <v>3.379826672147447</v>
+        <v>3.12104307511824</v>
       </c>
       <c r="J25">
-        <v>8.921301673690381</v>
+        <v>9.588734655038101</v>
       </c>
       <c r="K25">
-        <v>15.184368797251</v>
+        <v>13.9841465593688</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.04179890067321</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.627024709790565</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.47767443911335</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>15.84905663033095</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.82981525071783</v>
+        <v>23.95571724711884</v>
+      </c>
+      <c r="R25">
+        <v>15.25704730916835</v>
+      </c>
+      <c r="S25">
+        <v>16.92182269405925</v>
       </c>
     </row>
   </sheetData>
